--- a/nodes_source_analyses/energy/energy_compressor_hydrogen.converter.xlsx
+++ b/nodes_source_analyses/energy/energy_compressor_hydrogen.converter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="38400" windowHeight="23460" tabRatio="762"/>
+    <workbookView xWindow="19200" yWindow="-20" windowWidth="19200" windowHeight="23460" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="200">
   <si>
     <t>Source</t>
   </si>
@@ -377,9 +377,6 @@
     <t>land use per plant</t>
   </si>
   <si>
-    <t>Hydrogen output capacity</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hydrogen and Fuel Cells </t>
   </si>
   <si>
@@ -390,21 +387,6 @@
   </si>
   <si>
     <t>USD-euro conversion ratio</t>
-  </si>
-  <si>
-    <r>
-      <t>variable_operation_and_maintenance_costs_per_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>flh</t>
-    </r>
   </si>
   <si>
     <t>euro/flh</t>
@@ -441,9 +423,6 @@
   </si>
   <si>
     <t>Installation costs</t>
-  </si>
-  <si>
-    <t>decommisioning_costs</t>
   </si>
   <si>
     <t>Decommissioning costs</t>
@@ -726,6 +705,40 @@
   <si>
     <t>No data found yet</t>
   </si>
+  <si>
+    <t>typical_input_capacity</t>
+  </si>
+  <si>
+    <t>Typical input capacity</t>
+  </si>
+  <si>
+    <t>variable_operation_and_maintenance_costs_per_full_load_hour</t>
+  </si>
+  <si>
+    <r>
+      <t>decommi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sioning_costs</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -738,12 +751,19 @@
     <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1298,889 +1318,894 @@
   </borders>
   <cellStyleXfs count="597">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="20" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="21" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="21" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="20" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="34" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="33" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="597">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3673,7 +3698,7 @@
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -3708,7 +3733,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3861,8 +3886,8 @@
   </sheetPr>
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3884,36 +3909,36 @@
       <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="B2" s="167" t="s">
+      <c r="B2" s="184" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="169"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="186"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="B3" s="170"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="172"/>
+      <c r="B3" s="187"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="189"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" s="170"/>
-      <c r="C4" s="171"/>
-      <c r="D4" s="171"/>
-      <c r="E4" s="172"/>
+      <c r="B4" s="187"/>
+      <c r="C4" s="188"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="189"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5" s="173"/>
-      <c r="C5" s="174"/>
-      <c r="D5" s="174"/>
-      <c r="E5" s="175"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="191"/>
+      <c r="D5" s="191"/>
+      <c r="E5" s="192"/>
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
     </row>
@@ -3997,7 +4022,7 @@
       <c r="G12" s="109"/>
       <c r="H12" s="32"/>
       <c r="I12" s="157" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J12" s="14"/>
       <c r="L12" s="35"/>
@@ -4005,7 +4030,7 @@
     <row r="13" spans="1:12" s="26" customFormat="1" ht="16" thickBot="1">
       <c r="B13" s="25"/>
       <c r="C13" s="159" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="106">
@@ -4016,7 +4041,7 @@
       <c r="G13" s="109"/>
       <c r="H13" s="32"/>
       <c r="I13" s="157" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J13" s="14"/>
       <c r="L13" s="35"/>
@@ -4040,7 +4065,7 @@
       </c>
       <c r="H14" s="32"/>
       <c r="I14" s="157" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J14" s="14"/>
       <c r="K14" s="26"/>
@@ -4048,23 +4073,23 @@
     <row r="15" spans="1:12" ht="16" thickBot="1">
       <c r="A15" s="112"/>
       <c r="B15" s="113"/>
-      <c r="C15" s="109" t="s">
-        <v>66</v>
+      <c r="C15" s="183" t="s">
+        <v>196</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>65</v>
       </c>
       <c r="E15" s="106">
         <f>'Research data'!H10</f>
-        <v>1.0370058029065887</v>
+        <v>1.1209333333333333</v>
       </c>
       <c r="F15" s="109"/>
-      <c r="G15" s="109" t="s">
-        <v>100</v>
+      <c r="G15" s="183" t="s">
+        <v>197</v>
       </c>
       <c r="H15" s="109"/>
       <c r="I15" s="157" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J15" s="115"/>
       <c r="K15" s="26"/>
@@ -4104,7 +4129,7 @@
       <c r="G17" s="109"/>
       <c r="H17" s="109"/>
       <c r="I17" s="157" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J17" s="115"/>
       <c r="K17" s="36"/>
@@ -4112,7 +4137,7 @@
     <row r="18" spans="1:11" ht="16" thickBot="1">
       <c r="B18" s="113"/>
       <c r="C18" s="146" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="106">
@@ -4121,11 +4146,11 @@
       </c>
       <c r="F18" s="109"/>
       <c r="G18" s="146" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H18" s="109"/>
       <c r="I18" s="157" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J18" s="115"/>
     </row>
@@ -4170,7 +4195,7 @@
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="157" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J21" s="94"/>
     </row>
@@ -4192,17 +4217,17 @@
       </c>
       <c r="H22" s="39"/>
       <c r="I22" s="157" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J22" s="94"/>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="B23" s="136"/>
-      <c r="C23" s="137" t="s">
-        <v>105</v>
+      <c r="C23" s="193" t="s">
+        <v>198</v>
       </c>
       <c r="D23" s="138" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E23" s="106">
         <f>'Research data'!H24</f>
@@ -4210,11 +4235,11 @@
       </c>
       <c r="F23" s="139"/>
       <c r="G23" s="137" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H23" s="139"/>
       <c r="I23" s="157" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J23" s="140"/>
     </row>
@@ -4222,7 +4247,7 @@
       <c r="A24" s="141"/>
       <c r="B24" s="143"/>
       <c r="C24" s="144" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D24" s="138"/>
       <c r="E24" s="106">
@@ -4231,7 +4256,7 @@
       </c>
       <c r="F24" s="144"/>
       <c r="G24" s="144" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H24" s="144"/>
       <c r="I24" s="158" t="s">
@@ -4243,7 +4268,7 @@
       <c r="A25" s="141"/>
       <c r="B25" s="143"/>
       <c r="C25" s="144" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D25" s="138"/>
       <c r="E25" s="106">
@@ -4252,11 +4277,11 @@
       </c>
       <c r="F25" s="144"/>
       <c r="G25" s="144" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H25" s="144"/>
       <c r="I25" s="158" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J25" s="145"/>
       <c r="K25" s="141"/>
@@ -4264,8 +4289,8 @@
     <row r="26" spans="1:11" ht="16" thickBot="1">
       <c r="A26" s="141"/>
       <c r="B26" s="143"/>
-      <c r="C26" s="144" t="s">
-        <v>114</v>
+      <c r="C26" s="193" t="s">
+        <v>199</v>
       </c>
       <c r="D26" s="138"/>
       <c r="E26" s="106">
@@ -4274,11 +4299,11 @@
       </c>
       <c r="F26" s="144"/>
       <c r="G26" s="144" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H26" s="144"/>
       <c r="I26" s="163" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J26" s="145"/>
       <c r="K26" s="141"/>
@@ -4287,7 +4312,7 @@
       <c r="A27" s="141"/>
       <c r="B27" s="143"/>
       <c r="C27" s="144" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D27" s="138"/>
       <c r="E27" s="106">
@@ -4296,7 +4321,7 @@
       </c>
       <c r="F27" s="144"/>
       <c r="G27" s="142" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H27" s="144"/>
       <c r="I27" s="158" t="s">
@@ -4323,7 +4348,7 @@
       </c>
       <c r="H28" s="109"/>
       <c r="I28" s="157" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J28" s="115"/>
       <c r="K28" s="141"/>
@@ -4392,7 +4417,7 @@
       </c>
       <c r="H32" s="109"/>
       <c r="I32" s="111" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J32" s="115"/>
     </row>
@@ -4436,7 +4461,7 @@
       </c>
       <c r="H34" s="109"/>
       <c r="I34" s="157" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J34" s="115"/>
     </row>
@@ -4626,7 +4651,7 @@
   <dimension ref="A2:W42"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4697,19 +4722,19 @@
       </c>
       <c r="I4" s="91"/>
       <c r="J4" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K4" s="91"/>
       <c r="L4" s="91" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M4" s="91"/>
       <c r="N4" s="91" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O4" s="91"/>
       <c r="P4" s="91" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q4" s="91"/>
       <c r="R4" s="91"/>
@@ -4787,13 +4812,13 @@
       <c r="R7" s="46"/>
       <c r="S7" s="46"/>
       <c r="T7" s="153" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="16" thickBot="1">
       <c r="B8" s="45"/>
       <c r="C8" s="154" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D8" s="52"/>
       <c r="E8" s="52"/>
@@ -4820,7 +4845,7 @@
       <c r="R8" s="46"/>
       <c r="S8" s="46"/>
       <c r="T8" s="153" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="16" thickBot="1">
@@ -4855,13 +4880,13 @@
       <c r="R9" s="46"/>
       <c r="S9" s="46"/>
       <c r="T9" s="153" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="16" thickBot="1">
       <c r="B10" s="45"/>
-      <c r="C10" s="110" t="s">
-        <v>66</v>
+      <c r="C10" s="182" t="s">
+        <v>196</v>
       </c>
       <c r="D10" s="52"/>
       <c r="E10" s="52"/>
@@ -4871,13 +4896,13 @@
       <c r="G10" s="92"/>
       <c r="H10" s="105">
         <f>L10</f>
-        <v>1.0370058029065887</v>
+        <v>1.1209333333333333</v>
       </c>
       <c r="I10" s="49"/>
       <c r="K10" s="49"/>
       <c r="L10" s="105">
-        <f>Notes!E44</f>
-        <v>1.0370058029065887</v>
+        <f>Notes!E45</f>
+        <v>1.1209333333333333</v>
       </c>
       <c r="M10" s="49"/>
       <c r="O10" s="46"/>
@@ -4886,7 +4911,7 @@
       <c r="R10" s="46"/>
       <c r="S10" s="46"/>
       <c r="T10" s="153" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="16" thickBot="1">
@@ -4916,7 +4941,7 @@
       <c r="R11" s="112"/>
       <c r="S11" s="112"/>
       <c r="T11" s="148" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="U11" s="112"/>
     </row>
@@ -4940,7 +4965,7 @@
       <c r="M12" s="118"/>
       <c r="N12" s="112"/>
       <c r="T12" s="148" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="16" thickBot="1">
@@ -5132,7 +5157,7 @@
       </c>
       <c r="S20" s="49"/>
       <c r="T20" s="153" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="16" thickBot="1">
@@ -5156,7 +5181,7 @@
         <v>2868.7660531227348</v>
       </c>
       <c r="T21" s="153" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="16" thickBot="1">
@@ -5176,7 +5201,7 @@
       <c r="M22" s="126"/>
       <c r="N22" s="126"/>
       <c r="T22" s="153" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="16" thickBot="1">
@@ -5196,7 +5221,7 @@
       <c r="M23" s="118"/>
       <c r="N23" s="126"/>
       <c r="T23" s="153" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="W23" s="149"/>
     </row>
@@ -5217,14 +5242,14 @@
       <c r="M24" s="118"/>
       <c r="N24" s="126"/>
       <c r="T24" s="153" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="16" thickBot="1">
       <c r="A25" s="112"/>
       <c r="B25" s="113"/>
       <c r="C25" s="142" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F25" s="142" t="s">
         <v>20</v>
@@ -5239,14 +5264,14 @@
       <c r="M25" s="118"/>
       <c r="N25" s="118"/>
       <c r="T25" s="153" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="16" thickBot="1">
       <c r="A26" s="112"/>
       <c r="B26" s="113"/>
       <c r="C26" s="142" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F26" s="142" t="s">
         <v>20</v>
@@ -5262,14 +5287,14 @@
       <c r="M26" s="118"/>
       <c r="N26" s="118"/>
       <c r="T26" s="153" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="16" thickBot="1">
       <c r="A27" s="112"/>
       <c r="B27" s="113"/>
       <c r="C27" s="142" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F27" s="142" t="s">
         <v>20</v>
@@ -5294,10 +5319,10 @@
       <c r="A28" s="112"/>
       <c r="B28" s="113"/>
       <c r="C28" s="144" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F28" s="142" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H28" s="130">
         <v>0</v>
@@ -5309,14 +5334,14 @@
       <c r="M28" s="118"/>
       <c r="N28" s="118"/>
       <c r="T28" s="153" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="16" thickBot="1">
       <c r="A29" s="112"/>
       <c r="B29" s="113"/>
       <c r="C29" s="142" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F29" s="142" t="s">
         <v>53</v>
@@ -5331,7 +5356,7 @@
       <c r="M29" s="118"/>
       <c r="N29" s="118"/>
       <c r="T29" s="153" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -5387,7 +5412,7 @@
       <c r="R32" s="46"/>
       <c r="S32" s="46"/>
       <c r="T32" s="153" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="16" thickBot="1">
@@ -5414,7 +5439,7 @@
       <c r="R33" s="46"/>
       <c r="S33" s="46"/>
       <c r="T33" s="165" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="16" thickBot="1">
@@ -5467,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="156" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="16" thickBot="1">
@@ -5480,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="156" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="16" thickBot="1">
@@ -5493,7 +5518,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="156" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="16" thickBot="1">
@@ -5506,7 +5531,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="156" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="16" thickBot="1">
@@ -5519,7 +5544,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="156" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -5648,7 +5673,7 @@
         <v>64</v>
       </c>
       <c r="D7" s="151" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E7" s="151" t="s">
         <v>60</v>
@@ -5663,10 +5688,10 @@
         <v>42353</v>
       </c>
       <c r="I7" s="58" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J7" s="59" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="2:10">
@@ -5675,10 +5700,10 @@
     <row r="9" spans="2:10">
       <c r="B9" s="62"/>
       <c r="C9" s="149" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D9" s="151" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E9" s="151" t="s">
         <v>60</v>
@@ -5693,10 +5718,10 @@
         <v>42352</v>
       </c>
       <c r="I9" s="100" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J9" s="99" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="2:10">
@@ -5738,7 +5763,7 @@
         <v>97</v>
       </c>
       <c r="D14" s="149" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E14" s="149" t="s">
         <v>60</v>
@@ -5753,10 +5778,10 @@
         <v>42360</v>
       </c>
       <c r="I14" s="63" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J14" s="149" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="2:10">
@@ -5782,13 +5807,13 @@
     <row r="17" spans="2:10">
       <c r="B17" s="62"/>
       <c r="C17" s="149" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D17" s="149" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E17" s="149" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F17" s="59">
         <v>2015</v>
@@ -5800,16 +5825,16 @@
         <v>42360</v>
       </c>
       <c r="I17" s="117" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J17" s="98" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="62"/>
       <c r="C18" s="149" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="2:10">
@@ -5818,10 +5843,10 @@
     <row r="20" spans="2:10">
       <c r="B20" s="62"/>
       <c r="C20" s="161" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D20" s="149" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E20" s="151" t="s">
         <v>60</v>
@@ -5836,10 +5861,10 @@
         <v>42352</v>
       </c>
       <c r="I20" s="63" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J20" s="151" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="2:10">
@@ -5911,7 +5936,7 @@
       <c r="B34" s="62"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="34" type="noConversion"/>
+  <phoneticPr fontId="35" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -5930,7 +5955,7 @@
   <dimension ref="A1:S276"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6050,10 +6075,10 @@
         <v>120.1</v>
       </c>
       <c r="I8" s="67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J8" s="67" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L8" s="74"/>
       <c r="M8" s="74"/>
@@ -6067,14 +6092,14 @@
       <c r="E9" s="74"/>
       <c r="F9" s="74"/>
       <c r="G9" s="74"/>
-      <c r="L9" s="176"/>
-      <c r="M9" s="177"/>
-      <c r="N9" s="177"/>
-      <c r="O9" s="177"/>
-      <c r="P9" s="177"/>
-      <c r="Q9" s="177"/>
-      <c r="R9" s="177"/>
-      <c r="S9" s="178"/>
+      <c r="L9" s="167"/>
+      <c r="M9" s="168"/>
+      <c r="N9" s="168"/>
+      <c r="O9" s="168"/>
+      <c r="P9" s="168"/>
+      <c r="Q9" s="168"/>
+      <c r="R9" s="168"/>
+      <c r="S9" s="169"/>
     </row>
     <row r="10" spans="1:19" ht="18">
       <c r="B10" s="73"/>
@@ -6083,26 +6108,26 @@
       <c r="E10" s="74"/>
       <c r="F10" s="74"/>
       <c r="G10" s="74"/>
-      <c r="L10" s="179"/>
-      <c r="M10" s="180" t="s">
+      <c r="L10" s="170"/>
+      <c r="M10" s="171" t="s">
         <v>54</v>
       </c>
-      <c r="N10" s="180" t="s">
+      <c r="N10" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="O10" s="180" t="s">
+      <c r="O10" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="180" t="s">
+      <c r="P10" s="171" t="s">
         <v>7</v>
       </c>
-      <c r="Q10" s="180" t="s">
+      <c r="Q10" s="171" t="s">
         <v>55</v>
       </c>
-      <c r="R10" s="180" t="s">
+      <c r="R10" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="S10" s="181"/>
+      <c r="S10" s="172"/>
     </row>
     <row r="11" spans="1:19" ht="19" thickBot="1">
       <c r="B11" s="73"/>
@@ -6115,14 +6140,14 @@
       <c r="I11" s="74"/>
       <c r="J11" s="74"/>
       <c r="K11" s="74"/>
-      <c r="L11" s="182"/>
-      <c r="M11" s="183"/>
-      <c r="N11" s="183"/>
-      <c r="O11" s="183"/>
-      <c r="P11" s="183"/>
-      <c r="Q11" s="183"/>
-      <c r="R11" s="183"/>
-      <c r="S11" s="184"/>
+      <c r="L11" s="173"/>
+      <c r="M11" s="174"/>
+      <c r="N11" s="174"/>
+      <c r="O11" s="174"/>
+      <c r="P11" s="174"/>
+      <c r="Q11" s="174"/>
+      <c r="R11" s="174"/>
+      <c r="S11" s="175"/>
     </row>
     <row r="12" spans="1:19" ht="19" thickBot="1">
       <c r="B12" s="73"/>
@@ -6131,7 +6156,7 @@
       <c r="E12" s="74"/>
       <c r="F12" s="74"/>
       <c r="G12" s="74"/>
-      <c r="H12" s="190">
+      <c r="H12" s="181">
         <f>O12</f>
         <v>1.0980000000000001</v>
       </c>
@@ -6139,29 +6164,29 @@
         <v>68</v>
       </c>
       <c r="J12" s="67" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K12" s="74"/>
-      <c r="L12" s="182"/>
+      <c r="L12" s="173"/>
       <c r="M12" s="148" t="s">
         <v>56</v>
       </c>
       <c r="N12" s="148" t="s">
         <v>57</v>
       </c>
-      <c r="O12" s="185">
+      <c r="O12" s="176">
         <v>1.0980000000000001</v>
       </c>
       <c r="P12" s="148" t="s">
         <v>58</v>
       </c>
-      <c r="Q12" s="186">
+      <c r="Q12" s="177">
         <v>42221</v>
       </c>
       <c r="R12" s="163" t="s">
         <v>59</v>
       </c>
-      <c r="S12" s="184"/>
+      <c r="S12" s="175"/>
     </row>
     <row r="13" spans="1:19" ht="16" thickBot="1">
       <c r="B13" s="73"/>
@@ -6174,14 +6199,14 @@
       <c r="I13" s="74"/>
       <c r="J13" s="74"/>
       <c r="K13" s="74"/>
-      <c r="L13" s="187"/>
-      <c r="M13" s="188"/>
-      <c r="N13" s="188"/>
-      <c r="O13" s="188"/>
-      <c r="P13" s="188"/>
-      <c r="Q13" s="188"/>
-      <c r="R13" s="188"/>
-      <c r="S13" s="189"/>
+      <c r="L13" s="178"/>
+      <c r="M13" s="179"/>
+      <c r="N13" s="179"/>
+      <c r="O13" s="179"/>
+      <c r="P13" s="179"/>
+      <c r="Q13" s="179"/>
+      <c r="R13" s="179"/>
+      <c r="S13" s="180"/>
     </row>
     <row r="14" spans="1:19">
       <c r="B14" s="73"/>
@@ -6282,7 +6307,7 @@
     <row r="21" spans="2:15">
       <c r="B21" s="73"/>
       <c r="C21" s="71" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G21" s="74"/>
       <c r="H21" s="74"/>
@@ -6315,14 +6340,14 @@
     <row r="24" spans="2:15">
       <c r="B24" s="73"/>
       <c r="C24" s="67" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E24" s="67">
         <f>4.2*2.7</f>
         <v>11.340000000000002</v>
       </c>
       <c r="F24" s="67" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J24" s="74"/>
       <c r="K24" s="74"/>
@@ -6334,7 +6359,7 @@
     <row r="25" spans="2:15">
       <c r="B25" s="73"/>
       <c r="C25" s="67" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E25" s="67">
         <f>E24/1000/1000</f>
@@ -6365,10 +6390,10 @@
         <v>105</v>
       </c>
       <c r="F27" s="67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G27" s="67" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J27" s="74"/>
       <c r="K27" s="74"/>
@@ -6392,10 +6417,10 @@
         <v>33.6</v>
       </c>
       <c r="F29" s="67" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G29" s="67" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I29" s="150"/>
       <c r="J29" s="74"/>
@@ -6412,10 +6437,10 @@
         <v>4035.36</v>
       </c>
       <c r="F30" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G30" s="67" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J30" s="74"/>
       <c r="K30" s="74"/>
@@ -6431,10 +6456,10 @@
         <v>8070.72</v>
       </c>
       <c r="F31" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G31" s="67" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J31" s="74"/>
       <c r="K31" s="74"/>
@@ -6462,7 +6487,7 @@
         <v>65</v>
       </c>
       <c r="G33" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J33" s="74"/>
       <c r="K33" s="74"/>
@@ -6481,7 +6506,7 @@
         <v>65</v>
       </c>
       <c r="G34" s="67" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J34" s="74"/>
       <c r="K34" s="74"/>
@@ -6505,10 +6530,10 @@
         <v>2.7</v>
       </c>
       <c r="F36" s="67" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G36" s="67" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J36" s="74"/>
       <c r="K36" s="74"/>
@@ -6524,10 +6549,10 @@
         <v>9.7200000000000006</v>
       </c>
       <c r="F37" s="67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G37" s="67" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J37" s="74"/>
       <c r="K37" s="74"/>
@@ -6577,7 +6602,7 @@
         <v>0.92512709906023727</v>
       </c>
       <c r="G41" s="67" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J41" s="74"/>
       <c r="K41" s="74"/>
@@ -6631,6 +6656,16 @@
     <row r="45" spans="2:15">
       <c r="B45" s="73"/>
       <c r="C45" s="74"/>
+      <c r="E45" s="67">
+        <f>E44/E42</f>
+        <v>1.1209333333333333</v>
+      </c>
+      <c r="F45" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="G45" s="67" t="s">
+        <v>196</v>
+      </c>
       <c r="K45" s="74"/>
       <c r="L45" s="74"/>
       <c r="M45" s="74"/>
@@ -6698,7 +6733,7 @@
     <row r="52" spans="2:15">
       <c r="B52" s="73"/>
       <c r="C52" s="162" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D52" s="74"/>
       <c r="K52" s="74"/>
@@ -6869,10 +6904,10 @@
         <v>2.67</v>
       </c>
       <c r="F72" s="67" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G72" s="67" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L72" s="74"/>
       <c r="M72" s="74"/>
@@ -6886,10 +6921,10 @@
         <v>0.18</v>
       </c>
       <c r="F73" s="67" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G73" s="67" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K73" s="74"/>
       <c r="L73" s="74"/>
@@ -6905,7 +6940,7 @@
         <v>2.85</v>
       </c>
       <c r="F74" s="67" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K74" s="74"/>
       <c r="L74" s="74"/>
@@ -6920,7 +6955,7 @@
         <v>10.26</v>
       </c>
       <c r="F75" s="67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K75" s="74"/>
       <c r="L75" s="74"/>
@@ -6941,10 +6976,10 @@
         <v>120.1</v>
       </c>
       <c r="F77" s="67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G77" s="67" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N77" s="74"/>
       <c r="O77" s="74"/>
@@ -6978,7 +7013,7 @@
         <v>0.92129487572875124</v>
       </c>
       <c r="G81" s="67" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N81" s="74"/>
       <c r="O81" s="74"/>
@@ -7088,7 +7123,7 @@
     <row r="101" spans="2:15">
       <c r="B101" s="73"/>
       <c r="C101" s="71" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="N101" s="74"/>
       <c r="O101" s="74"/>
@@ -7096,7 +7131,7 @@
     <row r="102" spans="2:15">
       <c r="B102" s="73"/>
       <c r="C102" s="71" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N102" s="74"/>
       <c r="O102" s="74"/>
@@ -7117,10 +7152,10 @@
         <v>20</v>
       </c>
       <c r="F105" s="67" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G105" s="67" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N105" s="74"/>
       <c r="O105" s="74"/>
@@ -7131,10 +7166,10 @@
         <v>300</v>
       </c>
       <c r="F106" s="67" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G106" s="67" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N106" s="74"/>
       <c r="O106" s="74"/>
@@ -7212,7 +7247,7 @@
     <row r="121" spans="2:15">
       <c r="B121" s="73"/>
       <c r="C121" s="71" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N121" s="74"/>
       <c r="O121" s="74"/>
@@ -7234,7 +7269,7 @@
         <v>0.5625</v>
       </c>
       <c r="G124" s="67" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="125" spans="2:15">
@@ -7244,10 +7279,10 @@
         <v>168.75</v>
       </c>
       <c r="F125" s="67" t="s">
+        <v>152</v>
+      </c>
+      <c r="G125" s="67" t="s">
         <v>155</v>
-      </c>
-      <c r="G125" s="67" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="126" spans="2:15">
@@ -7257,10 +7292,10 @@
         <v>153.68852459016392</v>
       </c>
       <c r="F126" s="67" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G126" s="67" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="127" spans="2:15">
@@ -7288,7 +7323,7 @@
         <v>1037.0058029065888</v>
       </c>
       <c r="F133" s="67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G133" s="67" t="s">
         <v>66</v>
@@ -7337,19 +7372,19 @@
     <row r="144" spans="2:7">
       <c r="B144" s="73"/>
       <c r="G144" s="67" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="145" spans="2:7">
       <c r="B145" s="73"/>
       <c r="G145" s="67" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="146" spans="2:7">
       <c r="B146" s="73"/>
       <c r="G146" s="67" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="147" spans="2:7">
@@ -7364,7 +7399,7 @@
         <v>74</v>
       </c>
       <c r="G148" s="67" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="149" spans="2:7">
@@ -7380,7 +7415,7 @@
         <v>0.45</v>
       </c>
       <c r="G151" s="67" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="152" spans="2:7">
@@ -7422,7 +7457,7 @@
     <row r="164" spans="2:19">
       <c r="B164" s="73"/>
       <c r="C164" s="71" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="165" spans="2:19">
@@ -7447,16 +7482,16 @@
         <v>4</v>
       </c>
       <c r="F170" s="67" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G170" s="67" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K170" s="67" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L170" s="74" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="171" spans="2:19">
@@ -7466,25 +7501,25 @@
         <v>1.8</v>
       </c>
       <c r="F171" s="67" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G171" s="67" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L171" s="74" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="172" spans="2:19">
       <c r="B172" s="73"/>
       <c r="L172" s="74" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="R172" s="67" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S172" s="67" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="173" spans="2:19">
@@ -7500,7 +7535,7 @@
         <v>22</v>
       </c>
       <c r="L173" s="74" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="174" spans="2:19">
@@ -7513,7 +7548,7 @@
         <v>20</v>
       </c>
       <c r="G174" s="67" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="175" spans="2:19">
@@ -7540,13 +7575,13 @@
         <v>76</v>
       </c>
       <c r="G180" s="67" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K180" s="67" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L180" s="74" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="181" spans="2:19">
@@ -7556,19 +7591,19 @@
         <v>0.1</v>
       </c>
       <c r="L181" s="74" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="182" spans="2:19">
       <c r="B182" s="73"/>
       <c r="L182" s="74" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="R182" s="67" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S182" s="67" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="183" spans="2:19">
@@ -7583,7 +7618,7 @@
       </c>
       <c r="H183" s="74"/>
       <c r="L183" s="74" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="184" spans="2:19">
@@ -7593,7 +7628,7 @@
         <v>15937.589184015196</v>
       </c>
       <c r="G184" s="67" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H184" s="74"/>
     </row>
@@ -7629,7 +7664,7 @@
         <v>96</v>
       </c>
       <c r="G190" s="67" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="191" spans="2:19">

--- a/nodes_source_analyses/energy/energy_compressor_hydrogen.converter.xlsx
+++ b/nodes_source_analyses/energy/energy_compressor_hydrogen.converter.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/energy/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="-20" windowWidth="19200" windowHeight="23460" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="19200" yWindow="-23540" windowWidth="19200" windowHeight="23540" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -19,7 +24,7 @@
     <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
-    <definedName name="depr_cap">Notes!$E$101</definedName>
+    <definedName name="depr_cap">Notes!$E$126</definedName>
     <definedName name="exchange_rate_2011_2010">#REF!</definedName>
     <definedName name="Final_demand_residences">'[1]Fuel aggregation'!$L$11</definedName>
     <definedName name="hours_a_year">#REF!</definedName>
@@ -41,8 +46,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -51,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="227">
   <si>
     <t>Source</t>
   </si>
@@ -739,19 +747,101 @@
       <t>sioning_costs</t>
     </r>
   </si>
+  <si>
+    <t>DOE</t>
+  </si>
+  <si>
+    <t>theoretical energy to compress hydrogen isothermally from 20 bar to 350 bar</t>
+  </si>
+  <si>
+    <t>theoretical energy to compress hydrogen isothermally from 20 bar to 700 bar</t>
+  </si>
+  <si>
+    <t>theoretical energy to compress hydrogen from 1 atm to 20 bar</t>
+  </si>
+  <si>
+    <t>DOE range for compression efficiencies is 2 to 4 kWh/kg H2</t>
+  </si>
+  <si>
+    <t>Average to 350 bar</t>
+  </si>
+  <si>
+    <t>output.hydrogen for compression to 700 bar</t>
+  </si>
+  <si>
+    <t>output.hydrogen for compression to 350 bar</t>
+  </si>
+  <si>
+    <t>x 10^9 km's</t>
+  </si>
+  <si>
+    <t>transport_useful_demand_car_kms 2013</t>
+  </si>
+  <si>
+    <t>transport_useful_demand_truck_kms 2013</t>
+  </si>
+  <si>
+    <t>The share of hydrogen technology will be equal for cars and trucks</t>
+  </si>
+  <si>
+    <t>Hydrogenics</t>
+  </si>
+  <si>
+    <t>http://www.hydrogenics.com/wp-content/uploads/Renewable-Hydrogen-Brochure.pdf</t>
+  </si>
+  <si>
+    <t>page 15</t>
+  </si>
+  <si>
+    <t>WaterstofNet</t>
+  </si>
+  <si>
+    <t>http://www.waterstofnet.eu/en/hydrogen-refuelling-stations</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>2017?</t>
+  </si>
+  <si>
+    <t>Hydrogen car  requires compression to 700 bar</t>
+  </si>
+  <si>
+    <t>Hydrogen truck  requires compression to 350 bar</t>
+  </si>
+  <si>
+    <t>weighed average efficiency hydrogen compression for  cars and trucks taking efficiency of hydrogen cars/trucks into account</t>
+  </si>
+  <si>
+    <t>km/MJ</t>
+  </si>
+  <si>
+    <t>output.car_kms hydrogen car (at 20170518)</t>
+  </si>
+  <si>
+    <t>output.car_kms hydrogen truck (at 20170518)</t>
+  </si>
+  <si>
+    <t>Part of total hydrogen required for transport</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="0.00000000"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1021,6 +1111,12 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Lettertype hoofdtekst"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1316,7 +1412,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="597">
+  <cellStyleXfs count="600">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1914,8 +2010,11 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2178,6 +2277,16 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="31" fillId="2" borderId="0" xfId="597" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="34" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2205,9 +2314,9 @@
     <xf numFmtId="0" fontId="34" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="597">
+  <cellStyles count="600">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2714,6 +2823,7 @@
     <cellStyle name="Followed Hyperlink" xfId="593" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="594" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="596" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="599" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2803,8 +2913,10 @@
     <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="595" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="598" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="274"/>
+    <cellStyle name="Percent" xfId="597" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2848,7 +2960,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2856,6 +2968,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
@@ -2946,16 +3064,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>939800</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66420</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>106709</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>2654300</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>1353077</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>43794</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2972,8 +3090,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7277100" y="9512300"/>
-          <a:ext cx="11671300" cy="8877300"/>
+          <a:off x="6941937" y="9887169"/>
+          <a:ext cx="7242520" cy="7294326"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2986,13 +3104,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>939800</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3024,13 +3142,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>3365500</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:colOff>3365499</xdr:colOff>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3062,13 +3180,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>1282700</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:colOff>1255402</xdr:colOff>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3100,13 +3218,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>1295400</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:colOff>1255402</xdr:colOff>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3133,11 +3251,201 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>4007944</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>69193</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8962989" y="40026897"/>
+          <a:ext cx="7467600" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>160575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>278816</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>94740</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8962989" y="41209311"/>
+          <a:ext cx="1651000" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>525518</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>102185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1580055</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>124081</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7401035" y="17239886"/>
+          <a:ext cx="7010400" cy="635000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>656897</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>145977</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>3235434</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>50071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7532414" y="6860920"/>
+          <a:ext cx="8534400" cy="1130300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>715287</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>87586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>70797</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142377</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7590804" y="3328276"/>
+          <a:ext cx="5311373" cy="3324676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -3250,7 +3558,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Title"/>
@@ -3311,7 +3619,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Title"/>
@@ -3702,32 +4010,32 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="22" customWidth="1"/>
     <col min="3" max="3" width="38.5" style="22" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="22"/>
+    <col min="4" max="16384" width="10.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="29" customFormat="1">
+    <row r="1" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="30" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="30"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -3736,7 +4044,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>42</v>
@@ -3745,7 +4053,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>13</v>
@@ -3754,29 +4062,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="76" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="77"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="78"/>
       <c r="C10" s="79"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="78" t="s">
         <v>28</v>
@@ -3785,33 +4093,33 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="78"/>
       <c r="C12" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="78"/>
       <c r="C13" s="81" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="78"/>
       <c r="C14" s="79" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="78"/>
       <c r="C15" s="79"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="78" t="s">
         <v>33</v>
@@ -3820,49 +4128,49 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="78"/>
       <c r="C17" s="83" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="78"/>
       <c r="C18" s="84" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="78"/>
       <c r="C19" s="85" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="86"/>
       <c r="C20" s="87" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="86"/>
       <c r="C21" s="88" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="86"/>
       <c r="C22" s="89" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="86"/>
       <c r="C23" s="90" t="s">
         <v>41</v>
@@ -3871,11 +4179,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3887,72 +4190,72 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="35" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="35" customWidth="1"/>
     <col min="3" max="3" width="36" style="35" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" style="35" customWidth="1"/>
     <col min="7" max="7" width="34" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="35" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" style="35" customWidth="1"/>
     <col min="9" max="9" width="42.5" style="35" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="35"/>
+    <col min="10" max="10" width="5.33203125" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D1" s="36"/>
     </row>
-    <row r="2" spans="1:12">
-      <c r="B2" s="184" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="192" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="186"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="194"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
-    <row r="3" spans="1:12">
-      <c r="B3" s="187"/>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="189"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="195"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="197"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
-    <row r="4" spans="1:12">
-      <c r="B4" s="187"/>
-      <c r="C4" s="188"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="189"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="195"/>
+      <c r="C4" s="196"/>
+      <c r="D4" s="196"/>
+      <c r="E4" s="197"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
-    <row r="5" spans="1:12">
-      <c r="B5" s="190"/>
-      <c r="C5" s="191"/>
-      <c r="D5" s="191"/>
-      <c r="E5" s="192"/>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="198"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="200"/>
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="36"/>
       <c r="F6" s="36"/>
       <c r="G6" s="36"/>
     </row>
-    <row r="7" spans="1:12" ht="16" thickBot="1">
+    <row r="7" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D7" s="36"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" s="37"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -3963,7 +4266,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="38"/>
     </row>
-    <row r="9" spans="1:12" s="26" customFormat="1">
+    <row r="9" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24"/>
       <c r="C9" s="16" t="s">
         <v>19</v>
@@ -3984,7 +4287,7 @@
       </c>
       <c r="J9" s="93"/>
     </row>
-    <row r="10" spans="1:12" s="26" customFormat="1">
+    <row r="10" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="25"/>
       <c r="C10" s="13"/>
       <c r="D10" s="33"/>
@@ -3995,7 +4298,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="1:12" s="26" customFormat="1" ht="16" thickBot="1">
+    <row r="11" spans="1:12" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="25"/>
       <c r="C11" s="13" t="s">
         <v>45</v>
@@ -4008,13 +4311,13 @@
       <c r="I11" s="13"/>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="1:12" s="26" customFormat="1" ht="16" thickBot="1">
+    <row r="12" spans="1:12" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="25"/>
       <c r="C12" s="159" t="s">
         <v>64</v>
       </c>
       <c r="D12" s="21"/>
-      <c r="E12" s="106">
+      <c r="E12" s="201">
         <f>'Research data'!H7</f>
         <v>7.487290093976276E-2</v>
       </c>
@@ -4027,15 +4330,15 @@
       <c r="J12" s="14"/>
       <c r="L12" s="35"/>
     </row>
-    <row r="13" spans="1:12" s="26" customFormat="1" ht="16" thickBot="1">
+    <row r="13" spans="1:12" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="25"/>
       <c r="C13" s="159" t="s">
         <v>141</v>
       </c>
       <c r="D13" s="21"/>
-      <c r="E13" s="106">
+      <c r="E13" s="201">
         <f>'Research data'!H8</f>
-        <v>0.92512709906023727</v>
+        <v>0.91781024577601056</v>
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="109"/>
@@ -4046,7 +4349,7 @@
       <c r="J13" s="14"/>
       <c r="L13" s="35"/>
     </row>
-    <row r="14" spans="1:12" ht="16" thickBot="1">
+    <row r="14" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="25"/>
       <c r="C14" s="109" t="s">
@@ -4057,7 +4360,7 @@
       </c>
       <c r="E14" s="106">
         <f>'Research data'!H9</f>
-        <v>0.92512709906023727</v>
+        <v>0.91781024577601056</v>
       </c>
       <c r="F14" s="39"/>
       <c r="G14" s="109" t="s">
@@ -4070,7 +4373,7 @@
       <c r="J14" s="14"/>
       <c r="K14" s="26"/>
     </row>
-    <row r="15" spans="1:12" ht="16" thickBot="1">
+    <row r="15" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="112"/>
       <c r="B15" s="113"/>
       <c r="C15" s="183" t="s">
@@ -4079,7 +4382,7 @@
       <c r="D15" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="106">
+      <c r="E15" s="201">
         <f>'Research data'!H10</f>
         <v>1.1209333333333333</v>
       </c>
@@ -4094,7 +4397,7 @@
       <c r="J15" s="115"/>
       <c r="K15" s="26"/>
     </row>
-    <row r="16" spans="1:12" ht="16" thickBot="1">
+    <row r="16" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="112"/>
       <c r="B16" s="113"/>
       <c r="C16" s="109" t="s">
@@ -4113,7 +4416,7 @@
       <c r="J16" s="115"/>
       <c r="K16" s="36"/>
     </row>
-    <row r="17" spans="1:11" ht="16" thickBot="1">
+    <row r="17" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="113"/>
       <c r="C17" s="109" t="s">
         <v>69</v>
@@ -4134,7 +4437,7 @@
       <c r="J17" s="115"/>
       <c r="K17" s="36"/>
     </row>
-    <row r="18" spans="1:11" ht="16" thickBot="1">
+    <row r="18" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="113"/>
       <c r="C18" s="146" t="s">
         <v>107</v>
@@ -4154,7 +4457,7 @@
       </c>
       <c r="J18" s="115"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B19" s="40"/>
       <c r="D19" s="36"/>
       <c r="E19" s="36"/>
@@ -4164,7 +4467,7 @@
       <c r="I19" s="36"/>
       <c r="J19" s="94"/>
     </row>
-    <row r="20" spans="1:11" ht="16" thickBot="1">
+    <row r="20" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="40"/>
       <c r="C20" s="13" t="s">
         <v>44</v>
@@ -4177,7 +4480,7 @@
       <c r="I20" s="36"/>
       <c r="J20" s="94"/>
     </row>
-    <row r="21" spans="1:11" ht="16" thickBot="1">
+    <row r="21" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="40"/>
       <c r="C21" s="39" t="s">
         <v>22</v>
@@ -4199,7 +4502,7 @@
       </c>
       <c r="J21" s="94"/>
     </row>
-    <row r="22" spans="1:11" ht="16" thickBot="1">
+    <row r="22" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="40"/>
       <c r="C22" s="39" t="s">
         <v>23</v>
@@ -4221,9 +4524,9 @@
       </c>
       <c r="J22" s="94"/>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" thickBot="1">
+    <row r="23" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="136"/>
-      <c r="C23" s="193" t="s">
+      <c r="C23" s="184" t="s">
         <v>198</v>
       </c>
       <c r="D23" s="138" t="s">
@@ -4243,7 +4546,7 @@
       </c>
       <c r="J23" s="140"/>
     </row>
-    <row r="24" spans="1:11" ht="16" thickBot="1">
+    <row r="24" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="141"/>
       <c r="B24" s="143"/>
       <c r="C24" s="144" t="s">
@@ -4264,7 +4567,7 @@
       </c>
       <c r="J24" s="145"/>
     </row>
-    <row r="25" spans="1:11" ht="16" thickBot="1">
+    <row r="25" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="141"/>
       <c r="B25" s="143"/>
       <c r="C25" s="144" t="s">
@@ -4286,10 +4589,10 @@
       <c r="J25" s="145"/>
       <c r="K25" s="141"/>
     </row>
-    <row r="26" spans="1:11" ht="16" thickBot="1">
+    <row r="26" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="141"/>
       <c r="B26" s="143"/>
-      <c r="C26" s="193" t="s">
+      <c r="C26" s="184" t="s">
         <v>199</v>
       </c>
       <c r="D26" s="138"/>
@@ -4308,7 +4611,7 @@
       <c r="J26" s="145"/>
       <c r="K26" s="141"/>
     </row>
-    <row r="27" spans="1:11" ht="16" thickBot="1">
+    <row r="27" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="141"/>
       <c r="B27" s="143"/>
       <c r="C27" s="144" t="s">
@@ -4330,7 +4633,7 @@
       <c r="J27" s="145"/>
       <c r="K27" s="141"/>
     </row>
-    <row r="28" spans="1:11" ht="16" thickBot="1">
+    <row r="28" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="112"/>
       <c r="B28" s="113"/>
       <c r="C28" s="109" t="s">
@@ -4353,7 +4656,7 @@
       <c r="J28" s="115"/>
       <c r="K28" s="141"/>
     </row>
-    <row r="29" spans="1:11" ht="16" thickBot="1">
+    <row r="29" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="112"/>
       <c r="B29" s="113"/>
       <c r="C29" s="109" t="s">
@@ -4373,7 +4676,7 @@
       </c>
       <c r="J29" s="115"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="112"/>
       <c r="B30" s="113"/>
       <c r="C30" s="109"/>
@@ -4385,7 +4688,7 @@
       <c r="I30" s="117"/>
       <c r="J30" s="115"/>
     </row>
-    <row r="31" spans="1:11" ht="16" thickBot="1">
+    <row r="31" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="112"/>
       <c r="B31" s="113"/>
       <c r="C31" s="13" t="s">
@@ -4398,7 +4701,7 @@
       <c r="I31" s="117"/>
       <c r="J31" s="115"/>
     </row>
-    <row r="32" spans="1:11" ht="16" thickBot="1">
+    <row r="32" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="112"/>
       <c r="B32" s="113"/>
       <c r="C32" s="109" t="s">
@@ -4421,7 +4724,7 @@
       </c>
       <c r="J32" s="115"/>
     </row>
-    <row r="33" spans="1:10" ht="16" thickBot="1">
+    <row r="33" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="112"/>
       <c r="B33" s="113"/>
       <c r="C33" s="109" t="s">
@@ -4442,7 +4745,7 @@
       <c r="I33" s="111"/>
       <c r="J33" s="115"/>
     </row>
-    <row r="34" spans="1:10" ht="16" thickBot="1">
+    <row r="34" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="112"/>
       <c r="B34" s="113"/>
       <c r="C34" s="109" t="s">
@@ -4465,7 +4768,7 @@
       </c>
       <c r="J34" s="115"/>
     </row>
-    <row r="35" spans="1:10" ht="16" thickBot="1">
+    <row r="35" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="112"/>
       <c r="B35" s="113"/>
       <c r="C35" s="109" t="s">
@@ -4485,7 +4788,7 @@
       </c>
       <c r="J35" s="115"/>
     </row>
-    <row r="36" spans="1:10" ht="16" thickBot="1">
+    <row r="36" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="112"/>
       <c r="B36" s="120"/>
       <c r="C36" s="121"/>
@@ -4497,7 +4800,7 @@
       <c r="I36" s="121"/>
       <c r="J36" s="122"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="112"/>
       <c r="B37" s="112"/>
       <c r="C37" s="112"/>
@@ -4509,7 +4812,7 @@
       <c r="I37" s="112"/>
       <c r="J37" s="112"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="112"/>
       <c r="B38" s="112"/>
       <c r="C38" s="112"/>
@@ -4521,7 +4824,7 @@
       <c r="I38" s="112"/>
       <c r="J38" s="112"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="112"/>
       <c r="B39" s="112"/>
       <c r="C39" s="112"/>
@@ -4533,7 +4836,7 @@
       <c r="I39" s="112"/>
       <c r="J39" s="112"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="112"/>
       <c r="B40" s="112"/>
       <c r="E40" s="112"/>
@@ -4543,7 +4846,7 @@
       <c r="I40" s="112"/>
       <c r="J40" s="112"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="112"/>
       <c r="B41" s="112"/>
       <c r="C41" s="112"/>
@@ -4555,7 +4858,7 @@
       <c r="I41" s="112"/>
       <c r="J41" s="112"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="112"/>
       <c r="B42" s="112"/>
       <c r="C42" s="112"/>
@@ -4567,7 +4870,7 @@
       <c r="I42" s="112"/>
       <c r="J42" s="112"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="112"/>
       <c r="B43" s="112"/>
       <c r="C43" s="112"/>
@@ -4579,7 +4882,7 @@
       <c r="I43" s="112"/>
       <c r="J43" s="112"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="112"/>
       <c r="B44" s="112"/>
       <c r="C44" s="112"/>
@@ -4591,10 +4894,10 @@
       <c r="I44" s="112"/>
       <c r="J44" s="112"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="112"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="112"/>
     </row>
   </sheetData>
@@ -4635,11 +4938,6 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4650,39 +4948,39 @@
   </sheetPr>
   <dimension ref="A2:W42"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="42" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="42" customWidth="1"/>
     <col min="2" max="2" width="3" style="42" customWidth="1"/>
-    <col min="3" max="3" width="34.375" style="42" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="42" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="42" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" style="42" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="42" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="42" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="42" customWidth="1"/>
     <col min="7" max="7" width="3" style="42" customWidth="1"/>
-    <col min="8" max="8" width="14.875" style="42" customWidth="1"/>
-    <col min="9" max="9" width="2.625" style="42" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" style="42" customWidth="1"/>
+    <col min="9" max="9" width="2.6640625" style="42" customWidth="1"/>
     <col min="10" max="10" width="10.5" style="42" customWidth="1"/>
     <col min="11" max="11" width="2.5" style="42" customWidth="1"/>
-    <col min="12" max="12" width="15.875" style="42" customWidth="1"/>
-    <col min="13" max="13" width="2.375" style="42" customWidth="1"/>
-    <col min="14" max="14" width="14.875" style="42" customWidth="1"/>
-    <col min="15" max="15" width="2.125" style="42" customWidth="1"/>
-    <col min="16" max="16" width="11.875" style="42" customWidth="1"/>
-    <col min="17" max="18" width="2.125" style="42" customWidth="1"/>
-    <col min="19" max="19" width="9.125" style="42" customWidth="1"/>
-    <col min="20" max="20" width="23.375" style="42" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" style="42" customWidth="1"/>
+    <col min="13" max="13" width="2.33203125" style="42" customWidth="1"/>
+    <col min="14" max="14" width="14.83203125" style="42" customWidth="1"/>
+    <col min="15" max="15" width="2.1640625" style="42" customWidth="1"/>
+    <col min="16" max="16" width="11.83203125" style="42" customWidth="1"/>
+    <col min="17" max="18" width="2.1640625" style="42" customWidth="1"/>
+    <col min="19" max="19" width="9.1640625" style="42" customWidth="1"/>
+    <col min="20" max="20" width="23.33203125" style="42" customWidth="1"/>
     <col min="21" max="21" width="11" style="42" customWidth="1"/>
     <col min="22" max="22" width="2.5" style="42" customWidth="1"/>
-    <col min="23" max="23" width="22.375" style="42" customWidth="1"/>
-    <col min="24" max="16384" width="10.625" style="42"/>
+    <col min="23" max="23" width="22.33203125" style="42" customWidth="1"/>
+    <col min="24" max="16384" width="10.83203125" style="42"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" ht="16" thickBot="1"/>
-    <row r="3" spans="1:23">
+    <row r="2" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B3" s="43"/>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
@@ -4706,7 +5004,7 @@
       <c r="V3" s="44"/>
       <c r="W3" s="44"/>
     </row>
-    <row r="4" spans="1:23" s="26" customFormat="1">
+    <row r="4" spans="1:23" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="25"/>
       <c r="C4" s="91" t="s">
         <v>19</v>
@@ -4743,7 +5041,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="18" customHeight="1">
+    <row r="5" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="45"/>
       <c r="C5" s="51"/>
       <c r="D5" s="51"/>
@@ -4759,7 +5057,7 @@
       <c r="N5" s="50"/>
       <c r="T5" s="56"/>
     </row>
-    <row r="6" spans="1:23" ht="18" customHeight="1" thickBot="1">
+    <row r="6" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="45"/>
       <c r="C6" s="12" t="s">
         <v>45</v>
@@ -4782,7 +5080,7 @@
       <c r="S6" s="46"/>
       <c r="T6" s="54"/>
     </row>
-    <row r="7" spans="1:23" ht="16" thickBot="1">
+    <row r="7" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="45"/>
       <c r="C7" s="110" t="s">
         <v>64</v>
@@ -4797,12 +5095,12 @@
       </c>
       <c r="I7" s="49"/>
       <c r="J7" s="155">
-        <f>Notes!E80</f>
+        <f>Notes!E101</f>
         <v>7.8705124271248761E-2</v>
       </c>
       <c r="K7" s="49"/>
       <c r="L7" s="155">
-        <f>Notes!E40</f>
+        <f>Notes!E61</f>
         <v>7.487290093976276E-2</v>
       </c>
       <c r="M7" s="49"/>
@@ -4815,7 +5113,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="16" thickBot="1">
+    <row r="8" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="45"/>
       <c r="C8" s="154" t="s">
         <v>141</v>
@@ -4825,17 +5123,17 @@
       <c r="F8" s="104"/>
       <c r="G8" s="92"/>
       <c r="H8" s="105">
-        <f>L8</f>
-        <v>0.92512709906023727</v>
+        <f>J8</f>
+        <v>0.91781024577601056</v>
       </c>
       <c r="I8" s="49"/>
       <c r="J8" s="155">
-        <f>Notes!E81</f>
-        <v>0.92129487572875124</v>
+        <f>Notes!E124</f>
+        <v>0.91781024577601056</v>
       </c>
       <c r="K8" s="49"/>
       <c r="L8" s="155">
-        <f>Notes!E41</f>
+        <f>Notes!E63</f>
         <v>0.92512709906023727</v>
       </c>
       <c r="M8" s="49"/>
@@ -4848,7 +5146,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="16" thickBot="1">
+    <row r="9" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="45"/>
       <c r="C9" s="110" t="s">
         <v>63</v>
@@ -4860,17 +5158,17 @@
       </c>
       <c r="G9" s="92"/>
       <c r="H9" s="105">
-        <f>L9</f>
-        <v>0.92512709906023727</v>
+        <f>J9</f>
+        <v>0.91781024577601056</v>
       </c>
       <c r="I9" s="49"/>
       <c r="J9" s="155">
-        <f>Notes!E82</f>
-        <v>0.92129487572875124</v>
+        <f>Notes!E124</f>
+        <v>0.91781024577601056</v>
       </c>
       <c r="K9" s="49"/>
       <c r="L9" s="155">
-        <f>Notes!E42</f>
+        <f>Notes!E63</f>
         <v>0.92512709906023727</v>
       </c>
       <c r="M9" s="49"/>
@@ -4883,7 +5181,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="16" thickBot="1">
+    <row r="10" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="45"/>
       <c r="C10" s="182" t="s">
         <v>196</v>
@@ -4901,7 +5199,7 @@
       <c r="I10" s="49"/>
       <c r="K10" s="49"/>
       <c r="L10" s="105">
-        <f>Notes!E45</f>
+        <f>Notes!E66</f>
         <v>1.1209333333333333</v>
       </c>
       <c r="M10" s="49"/>
@@ -4914,7 +5212,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="16" thickBot="1">
+    <row r="11" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="112"/>
       <c r="B11" s="113"/>
       <c r="C11" s="109" t="s">
@@ -4945,7 +5243,7 @@
       </c>
       <c r="U11" s="112"/>
     </row>
-    <row r="12" spans="1:23" ht="16" thickBot="1">
+    <row r="12" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="112"/>
       <c r="B12" s="113"/>
       <c r="C12" s="109" t="s">
@@ -4955,7 +5253,7 @@
         <v>96</v>
       </c>
       <c r="H12" s="130">
-        <f>Notes!E190</f>
+        <f>Notes!E215</f>
         <v>6570</v>
       </c>
       <c r="I12" s="118"/>
@@ -4968,7 +5266,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="16" thickBot="1">
+    <row r="13" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="112"/>
       <c r="B13" s="113"/>
       <c r="C13" s="109" t="s">
@@ -4997,7 +5295,7 @@
       <c r="T13" s="148"/>
       <c r="U13" s="112"/>
     </row>
-    <row r="14" spans="1:23" ht="16" thickBot="1">
+    <row r="14" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="112"/>
       <c r="B14" s="113"/>
       <c r="C14" s="109" t="s">
@@ -5025,7 +5323,7 @@
       <c r="T14" s="148"/>
       <c r="U14" s="112"/>
     </row>
-    <row r="15" spans="1:23" ht="16" thickBot="1">
+    <row r="15" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="112"/>
       <c r="B15" s="113"/>
       <c r="C15" s="109" t="s">
@@ -5053,7 +5351,7 @@
       <c r="T15" s="148"/>
       <c r="U15" s="112"/>
     </row>
-    <row r="16" spans="1:23" ht="16" thickBot="1">
+    <row r="16" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="112"/>
       <c r="B16" s="113"/>
       <c r="C16" s="109" t="s">
@@ -5081,7 +5379,7 @@
       <c r="T16" s="148"/>
       <c r="U16" s="112"/>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B17" s="45"/>
       <c r="C17" s="52"/>
       <c r="D17" s="110"/>
@@ -5101,7 +5399,7 @@
       <c r="S17" s="46"/>
       <c r="T17" s="57"/>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="112"/>
       <c r="B18" s="113"/>
       <c r="C18" s="34"/>
@@ -5115,7 +5413,7 @@
       <c r="S18" s="46"/>
       <c r="T18" s="56"/>
     </row>
-    <row r="19" spans="1:23" ht="16" thickBot="1">
+    <row r="19" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="112"/>
       <c r="B19" s="113"/>
       <c r="C19" s="12" t="s">
@@ -5131,7 +5429,7 @@
       <c r="S19" s="49"/>
       <c r="T19" s="108"/>
     </row>
-    <row r="20" spans="1:23" ht="16" thickBot="1">
+    <row r="20" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="112"/>
       <c r="B20" s="113"/>
       <c r="C20" s="129" t="s">
@@ -5152,7 +5450,7 @@
       <c r="L20" s="127"/>
       <c r="M20" s="126"/>
       <c r="P20" s="130">
-        <f>Notes!E136</f>
+        <f>Notes!E161</f>
         <v>159375.89184015195</v>
       </c>
       <c r="S20" s="49"/>
@@ -5160,7 +5458,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="16" thickBot="1">
+    <row r="21" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="112"/>
       <c r="B21" s="113"/>
       <c r="C21" s="129" t="s">
@@ -5177,14 +5475,14 @@
       <c r="L21" s="126"/>
       <c r="M21" s="126"/>
       <c r="P21" s="130">
-        <f>Notes!E174</f>
+        <f>Notes!E199</f>
         <v>2868.7660531227348</v>
       </c>
       <c r="T21" s="153" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="16" thickBot="1">
+    <row r="22" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="112"/>
       <c r="B22" s="113"/>
       <c r="C22" s="129" t="s">
@@ -5204,7 +5502,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="16" thickBot="1">
+    <row r="23" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="112"/>
       <c r="B23" s="113"/>
       <c r="C23" s="129" t="s">
@@ -5225,7 +5523,7 @@
       </c>
       <c r="W23" s="149"/>
     </row>
-    <row r="24" spans="1:23" ht="16" thickBot="1">
+    <row r="24" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="112"/>
       <c r="B24" s="113"/>
       <c r="C24" s="129" t="s">
@@ -5245,7 +5543,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="16" thickBot="1">
+    <row r="25" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="112"/>
       <c r="B25" s="113"/>
       <c r="C25" s="142" t="s">
@@ -5267,7 +5565,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="16" thickBot="1">
+    <row r="26" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="112"/>
       <c r="B26" s="113"/>
       <c r="C26" s="142" t="s">
@@ -5290,7 +5588,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="16" thickBot="1">
+    <row r="27" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="112"/>
       <c r="B27" s="113"/>
       <c r="C27" s="142" t="s">
@@ -5309,13 +5607,13 @@
       <c r="L27" s="118"/>
       <c r="M27" s="118"/>
       <c r="N27" s="130">
-        <f>Notes!E184</f>
+        <f>Notes!E209</f>
         <v>15937.589184015196</v>
       </c>
       <c r="Q27" s="149"/>
       <c r="T27" s="57"/>
     </row>
-    <row r="28" spans="1:23" ht="16" thickBot="1">
+    <row r="28" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="112"/>
       <c r="B28" s="113"/>
       <c r="C28" s="144" t="s">
@@ -5337,7 +5635,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="16" thickBot="1">
+    <row r="29" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="112"/>
       <c r="B29" s="113"/>
       <c r="C29" s="142" t="s">
@@ -5359,11 +5657,11 @@
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B30" s="45"/>
       <c r="T30" s="48"/>
     </row>
-    <row r="31" spans="1:23" ht="16" thickBot="1">
+    <row r="31" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="112"/>
       <c r="B31" s="113"/>
       <c r="C31" s="34" t="s">
@@ -5384,7 +5682,7 @@
       <c r="S31" s="46"/>
       <c r="T31" s="57"/>
     </row>
-    <row r="32" spans="1:23" ht="16" thickBot="1">
+    <row r="32" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="112"/>
       <c r="B32" s="113"/>
       <c r="C32" s="128" t="s">
@@ -5403,7 +5701,7 @@
       <c r="L32" s="126"/>
       <c r="M32" s="127"/>
       <c r="N32" s="130">
-        <f>Notes!E105</f>
+        <f>Notes!E130</f>
         <v>20</v>
       </c>
       <c r="O32" s="46"/>
@@ -5415,7 +5713,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="16" thickBot="1">
+    <row r="33" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="112"/>
       <c r="B33" s="113"/>
       <c r="C33" s="110" t="s">
@@ -5442,7 +5740,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="16" thickBot="1">
+    <row r="34" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="112"/>
       <c r="B34" s="113"/>
       <c r="C34" s="123" t="s">
@@ -5459,7 +5757,7 @@
       <c r="J34" s="127"/>
       <c r="K34" s="127"/>
       <c r="L34" s="152">
-        <f>Notes!E25</f>
+        <f>Notes!E46</f>
         <v>1.1340000000000002E-5</v>
       </c>
       <c r="M34" s="11"/>
@@ -5470,7 +5768,7 @@
       <c r="S34" s="46"/>
       <c r="T34" s="153"/>
     </row>
-    <row r="35" spans="1:20" ht="16" thickBot="1">
+    <row r="35" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="112"/>
       <c r="B35" s="113"/>
       <c r="C35" s="103" t="s">
@@ -5482,7 +5780,7 @@
       </c>
       <c r="T35" s="153"/>
     </row>
-    <row r="36" spans="1:20" ht="16" thickBot="1">
+    <row r="36" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="112"/>
       <c r="B36" s="113"/>
       <c r="C36" s="109" t="s">
@@ -5495,7 +5793,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="16" thickBot="1">
+    <row r="37" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="112"/>
       <c r="B37" s="113"/>
       <c r="C37" s="109" t="s">
@@ -5508,7 +5806,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="16" thickBot="1">
+    <row r="38" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="112"/>
       <c r="B38" s="113"/>
       <c r="C38" s="109" t="s">
@@ -5521,7 +5819,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="16" thickBot="1">
+    <row r="39" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="112"/>
       <c r="B39" s="113"/>
       <c r="C39" s="109" t="s">
@@ -5534,7 +5832,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="16" thickBot="1">
+    <row r="40" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="112"/>
       <c r="B40" s="113"/>
       <c r="C40" s="109" t="s">
@@ -5547,12 +5845,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="112"/>
       <c r="B41" s="113"/>
       <c r="T41" s="134"/>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="112"/>
       <c r="B42" s="113"/>
       <c r="C42" s="48"/>
@@ -5560,11 +5858,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5575,26 +5868,26 @@
   </sheetPr>
   <dimension ref="B1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:J20"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5" style="59" customWidth="1"/>
-    <col min="2" max="2" width="6.375" style="59" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="59" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="59" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="59" customWidth="1"/>
-    <col min="6" max="7" width="13.125" style="59" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="63" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="59" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="59" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="59" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="59" customWidth="1"/>
+    <col min="6" max="7" width="13.1640625" style="59" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="63" customWidth="1"/>
     <col min="9" max="9" width="31.5" style="63" customWidth="1"/>
-    <col min="10" max="10" width="98.375" style="59" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="59"/>
+    <col min="10" max="10" width="98.33203125" style="59" customWidth="1"/>
+    <col min="11" max="16384" width="33.1640625" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16" thickBot="1"/>
-    <row r="2" spans="2:10">
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="60"/>
       <c r="C2" s="61"/>
       <c r="D2" s="61"/>
@@ -5605,7 +5898,7 @@
       <c r="I2" s="64"/>
       <c r="J2" s="61"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="62"/>
       <c r="C3" s="13" t="s">
         <v>15</v>
@@ -5618,7 +5911,7 @@
       <c r="I3" s="18"/>
       <c r="J3" s="58"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="62"/>
       <c r="C4" s="58"/>
       <c r="D4" s="58"/>
@@ -5629,7 +5922,7 @@
       <c r="I4" s="65"/>
       <c r="J4" s="58"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="66"/>
       <c r="C5" s="15" t="s">
         <v>16</v>
@@ -5656,7 +5949,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="62"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -5667,7 +5960,7 @@
       <c r="I6" s="18"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="62"/>
       <c r="C7" s="147" t="s">
         <v>64</v>
@@ -5694,10 +5987,10 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="62"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="62"/>
       <c r="C9" s="149" t="s">
         <v>141</v>
@@ -5724,13 +6017,13 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="62"/>
       <c r="C10" s="149" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="62"/>
       <c r="C11" s="132" t="s">
         <v>99</v>
@@ -5742,7 +6035,7 @@
       <c r="H11" s="102"/>
       <c r="I11" s="58"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="62"/>
       <c r="C12" s="141" t="s">
         <v>66</v>
@@ -5754,10 +6047,10 @@
       <c r="H12" s="102"/>
       <c r="I12" s="58"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="62"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="62"/>
       <c r="C14" s="132" t="s">
         <v>97</v>
@@ -5784,7 +6077,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="62"/>
       <c r="C15" s="133" t="s">
         <v>67</v>
@@ -5795,7 +6088,7 @@
       <c r="H15" s="102"/>
       <c r="I15" s="117"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="62"/>
       <c r="C16" s="133"/>
       <c r="E16" s="107"/>
@@ -5804,7 +6097,7 @@
       <c r="H16" s="102"/>
       <c r="I16" s="117"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="62"/>
       <c r="C17" s="149" t="s">
         <v>147</v>
@@ -5831,16 +6124,16 @@
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="62"/>
       <c r="C18" s="149" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="62"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="62"/>
       <c r="C20" s="161" t="s">
         <v>112</v>
@@ -5867,33 +6160,61 @@
         <v>192</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="62"/>
-      <c r="I21" s="58"/>
+      <c r="D21" s="190" t="s">
+        <v>212</v>
+      </c>
+      <c r="E21" s="190" t="s">
+        <v>218</v>
+      </c>
+      <c r="F21" s="190" t="s">
+        <v>219</v>
+      </c>
+      <c r="H21" s="191">
+        <v>42870</v>
+      </c>
+      <c r="I21" s="189" t="s">
+        <v>213</v>
+      </c>
       <c r="J21" s="58"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="62"/>
-      <c r="I22" s="100"/>
+      <c r="D22" s="190" t="s">
+        <v>215</v>
+      </c>
+      <c r="E22" s="190" t="s">
+        <v>217</v>
+      </c>
+      <c r="F22" s="190" t="s">
+        <v>219</v>
+      </c>
+      <c r="H22" s="191">
+        <v>42870</v>
+      </c>
+      <c r="I22" s="74" t="s">
+        <v>216</v>
+      </c>
       <c r="J22" s="58"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="62"/>
       <c r="I23" s="58"/>
       <c r="J23" s="58"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="62"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="62"/>
       <c r="C25" s="112"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="62"/>
       <c r="C26" s="132"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="62"/>
       <c r="C27" s="133"/>
       <c r="D27" s="58"/>
@@ -5902,7 +6223,7 @@
       <c r="G27" s="58"/>
       <c r="H27" s="58"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="62"/>
       <c r="C28" s="132"/>
       <c r="D28" s="58"/>
@@ -5911,7 +6232,7 @@
       <c r="G28" s="58"/>
       <c r="H28" s="58"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="62"/>
       <c r="D29" s="58"/>
       <c r="E29" s="58"/>
@@ -5919,31 +6240,26 @@
       <c r="G29" s="58"/>
       <c r="H29" s="58"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="62"/>
       <c r="C30" s="132"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="62"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="62"/>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="62"/>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="62"/>
     </row>
   </sheetData>
   <phoneticPr fontId="35" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5952,31 +6268,31 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:S276"/>
+  <dimension ref="A1:S301"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView topLeftCell="A84" zoomScale="87" workbookViewId="0">
+      <selection activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="67" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="67" customWidth="1"/>
     <col min="2" max="2" width="3.5" style="67" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="67" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="67" customWidth="1"/>
     <col min="4" max="4" width="4" style="67" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="67" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" style="67" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="67" customWidth="1"/>
-    <col min="7" max="13" width="10.625" style="67"/>
-    <col min="14" max="14" width="7.125" style="67" customWidth="1"/>
-    <col min="15" max="15" width="10.625" style="67"/>
+    <col min="7" max="13" width="10.83203125" style="67"/>
+    <col min="14" max="14" width="7.1640625" style="67" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" style="67"/>
     <col min="16" max="16" width="16.5" style="67" customWidth="1"/>
-    <col min="17" max="17" width="10.625" style="67"/>
-    <col min="18" max="18" width="55.375" style="67" customWidth="1"/>
-    <col min="19" max="16384" width="10.625" style="67"/>
+    <col min="17" max="17" width="10.83203125" style="67"/>
+    <col min="18" max="18" width="55.33203125" style="67" customWidth="1"/>
+    <col min="19" max="16384" width="10.83203125" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="16" thickBot="1"/>
-    <row r="2" spans="1:19">
+    <row r="1" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B2" s="68"/>
       <c r="C2" s="69"/>
       <c r="D2" s="69"/>
@@ -5991,7 +6307,7 @@
       <c r="M2" s="69"/>
       <c r="N2" s="70"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="71"/>
       <c r="B3" s="96"/>
       <c r="C3" s="75" t="s">
@@ -6013,7 +6329,7 @@
       <c r="M3" s="72"/>
       <c r="N3" s="97"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B4" s="73"/>
       <c r="C4" s="74"/>
       <c r="D4" s="74"/>
@@ -6029,7 +6345,7 @@
       <c r="N4" s="74"/>
       <c r="O4" s="74"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B5" s="73"/>
       <c r="D5" s="74"/>
       <c r="E5" s="74"/>
@@ -6044,7 +6360,7 @@
       <c r="N5" s="74"/>
       <c r="O5" s="74"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="73"/>
       <c r="C6" s="74"/>
       <c r="D6" s="74"/>
@@ -6054,7 +6370,7 @@
       <c r="N6" s="74"/>
       <c r="O6" s="74"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B7" s="73"/>
       <c r="D7" s="74"/>
       <c r="E7" s="74"/>
@@ -6065,7 +6381,7 @@
       <c r="N7" s="74"/>
       <c r="O7" s="74"/>
     </row>
-    <row r="8" spans="1:19" ht="16" thickBot="1">
+    <row r="8" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="73"/>
       <c r="D8" s="74"/>
       <c r="E8" s="74"/>
@@ -6085,7 +6401,7 @@
       <c r="N8" s="74"/>
       <c r="O8" s="74"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B9" s="73"/>
       <c r="C9" s="74"/>
       <c r="D9" s="74"/>
@@ -6101,7 +6417,7 @@
       <c r="R9" s="168"/>
       <c r="S9" s="169"/>
     </row>
-    <row r="10" spans="1:19" ht="18">
+    <row r="10" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="B10" s="73"/>
       <c r="C10" s="74"/>
       <c r="D10" s="74"/>
@@ -6129,7 +6445,7 @@
       </c>
       <c r="S10" s="172"/>
     </row>
-    <row r="11" spans="1:19" ht="19" thickBot="1">
+    <row r="11" spans="1:19" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="73"/>
       <c r="C11" s="74"/>
       <c r="D11" s="74"/>
@@ -6149,7 +6465,7 @@
       <c r="R11" s="174"/>
       <c r="S11" s="175"/>
     </row>
-    <row r="12" spans="1:19" ht="19" thickBot="1">
+    <row r="12" spans="1:19" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="73"/>
       <c r="C12" s="74"/>
       <c r="D12" s="74"/>
@@ -6188,7 +6504,7 @@
       </c>
       <c r="S12" s="175"/>
     </row>
-    <row r="13" spans="1:19" ht="16" thickBot="1">
+    <row r="13" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="73"/>
       <c r="C13" s="74"/>
       <c r="D13" s="74"/>
@@ -6208,23 +6524,30 @@
       <c r="R13" s="179"/>
       <c r="S13" s="180"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B14" s="73"/>
-      <c r="C14" s="74"/>
+      <c r="C14" s="74" t="s">
+        <v>212</v>
+      </c>
       <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
+      <c r="E14" s="74" t="s">
+        <v>214</v>
+      </c>
       <c r="F14" s="74"/>
       <c r="G14" s="74"/>
       <c r="H14" s="74"/>
       <c r="I14" s="74"/>
       <c r="J14" s="74"/>
       <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="74"/>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="M14" s="189"/>
+      <c r="N14" s="189"/>
+      <c r="O14" s="189"/>
+      <c r="P14" s="189"/>
+      <c r="Q14" s="189"/>
+      <c r="R14" s="189"/>
+      <c r="S14" s="189"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B15" s="73"/>
       <c r="C15" s="74"/>
       <c r="D15" s="74"/>
@@ -6235,194 +6558,288 @@
       <c r="I15" s="74"/>
       <c r="J15" s="74"/>
       <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="74"/>
-      <c r="N15" s="74"/>
-      <c r="O15" s="74"/>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="L15" s="189"/>
+      <c r="M15" s="189"/>
+      <c r="N15" s="189"/>
+      <c r="O15" s="189"/>
+      <c r="P15" s="189"/>
+      <c r="Q15" s="189"/>
+      <c r="R15" s="189"/>
+      <c r="S15" s="189"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B16" s="73"/>
       <c r="C16" s="74"/>
       <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
       <c r="I16" s="74"/>
       <c r="J16" s="74"/>
       <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="74"/>
-    </row>
-    <row r="17" spans="2:15">
+      <c r="L16" s="189"/>
+      <c r="M16" s="189"/>
+      <c r="N16" s="189"/>
+      <c r="O16" s="189"/>
+      <c r="P16" s="189"/>
+      <c r="Q16" s="189"/>
+      <c r="R16" s="189"/>
+      <c r="S16" s="189"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B17" s="73"/>
       <c r="C17" s="74"/>
       <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
       <c r="I17" s="74"/>
       <c r="J17" s="74"/>
       <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="74"/>
-    </row>
-    <row r="18" spans="2:15">
+      <c r="L17" s="189"/>
+      <c r="M17" s="189"/>
+      <c r="N17" s="189"/>
+      <c r="O17" s="189"/>
+      <c r="P17" s="189"/>
+      <c r="Q17" s="189"/>
+      <c r="R17" s="189"/>
+      <c r="S17" s="189"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B18" s="73"/>
       <c r="C18" s="74"/>
       <c r="D18" s="74"/>
+      <c r="E18" s="74" t="s">
+        <v>220</v>
+      </c>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
       <c r="I18" s="74"/>
       <c r="J18" s="74"/>
       <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="74"/>
-    </row>
-    <row r="19" spans="2:15">
+      <c r="L18" s="189"/>
+      <c r="M18" s="189"/>
+      <c r="N18" s="189"/>
+      <c r="O18" s="189"/>
+      <c r="P18" s="189"/>
+      <c r="Q18" s="189"/>
+      <c r="R18" s="189"/>
+      <c r="S18" s="189"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" s="73"/>
       <c r="C19" s="74"/>
       <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
+      <c r="E19" s="74" t="s">
+        <v>221</v>
+      </c>
       <c r="F19" s="74"/>
       <c r="G19" s="74"/>
       <c r="H19" s="74"/>
       <c r="I19" s="74"/>
       <c r="J19" s="74"/>
       <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="74"/>
-    </row>
-    <row r="20" spans="2:15">
+      <c r="L19" s="189"/>
+      <c r="M19" s="189"/>
+      <c r="N19" s="189"/>
+      <c r="O19" s="189"/>
+      <c r="P19" s="189"/>
+      <c r="Q19" s="189"/>
+      <c r="R19" s="189"/>
+      <c r="S19" s="189"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" s="73"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
       <c r="G20" s="74"/>
       <c r="H20" s="74"/>
       <c r="I20" s="74"/>
       <c r="J20" s="74"/>
       <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="74"/>
-      <c r="O20" s="74"/>
-    </row>
-    <row r="21" spans="2:15">
+      <c r="L20" s="189"/>
+      <c r="M20" s="189"/>
+      <c r="N20" s="189"/>
+      <c r="O20" s="189"/>
+      <c r="P20" s="189"/>
+      <c r="Q20" s="189"/>
+      <c r="R20" s="189"/>
+      <c r="S20" s="189"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B21" s="73"/>
-      <c r="C21" s="71" t="s">
-        <v>145</v>
-      </c>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
       <c r="G21" s="74"/>
       <c r="H21" s="74"/>
       <c r="I21" s="74"/>
       <c r="J21" s="74"/>
       <c r="K21" s="74"/>
-      <c r="L21" s="74"/>
-      <c r="M21" s="74"/>
-      <c r="N21" s="74"/>
-      <c r="O21" s="74"/>
-    </row>
-    <row r="22" spans="2:15">
+      <c r="L21" s="189"/>
+      <c r="M21" s="189"/>
+      <c r="N21" s="189"/>
+      <c r="O21" s="189"/>
+      <c r="P21" s="189"/>
+      <c r="Q21" s="189"/>
+      <c r="R21" s="189"/>
+      <c r="S21" s="189"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B22" s="73"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
       <c r="J22" s="74"/>
       <c r="K22" s="74"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="74"/>
-      <c r="N22" s="74"/>
-      <c r="O22" s="74"/>
-    </row>
-    <row r="23" spans="2:15">
+      <c r="L22" s="189"/>
+      <c r="M22" s="189"/>
+      <c r="N22" s="189"/>
+      <c r="O22" s="189"/>
+      <c r="P22" s="189"/>
+      <c r="Q22" s="189"/>
+      <c r="R22" s="189"/>
+      <c r="S22" s="189"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B23" s="73"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
       <c r="J23" s="74"/>
       <c r="K23" s="74"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="74"/>
-      <c r="O23" s="74"/>
-    </row>
-    <row r="24" spans="2:15">
+      <c r="L23" s="189"/>
+      <c r="M23" s="189"/>
+      <c r="N23" s="189"/>
+      <c r="O23" s="189"/>
+      <c r="P23" s="189"/>
+      <c r="Q23" s="189"/>
+      <c r="R23" s="189"/>
+      <c r="S23" s="189"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B24" s="73"/>
-      <c r="C24" s="67" t="s">
-        <v>131</v>
-      </c>
-      <c r="E24" s="67">
-        <f>4.2*2.7</f>
-        <v>11.340000000000002</v>
-      </c>
-      <c r="F24" s="67" t="s">
-        <v>139</v>
-      </c>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
       <c r="J24" s="74"/>
       <c r="K24" s="74"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="74"/>
-      <c r="O24" s="74"/>
-    </row>
-    <row r="25" spans="2:15">
+      <c r="L24" s="189"/>
+      <c r="M24" s="189"/>
+      <c r="N24" s="189"/>
+      <c r="O24" s="189"/>
+      <c r="P24" s="189"/>
+      <c r="Q24" s="189"/>
+      <c r="R24" s="189"/>
+      <c r="S24" s="189"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B25" s="73"/>
-      <c r="C25" s="67" t="s">
-        <v>132</v>
-      </c>
-      <c r="E25" s="67">
-        <f>E24/1000/1000</f>
-        <v>1.1340000000000002E-5</v>
-      </c>
-      <c r="F25" s="67" t="s">
-        <v>81</v>
-      </c>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
       <c r="J25" s="74"/>
       <c r="K25" s="74"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="74"/>
-      <c r="N25" s="74"/>
-      <c r="O25" s="74"/>
-    </row>
-    <row r="26" spans="2:15">
+      <c r="L25" s="189"/>
+      <c r="M25" s="189"/>
+      <c r="N25" s="189"/>
+      <c r="O25" s="189"/>
+      <c r="P25" s="189"/>
+      <c r="Q25" s="189"/>
+      <c r="R25" s="189"/>
+      <c r="S25" s="189"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B26" s="73"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
       <c r="J26" s="74"/>
       <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="74"/>
-      <c r="N26" s="74"/>
-      <c r="O26" s="74"/>
-    </row>
-    <row r="27" spans="2:15">
+      <c r="L26" s="189"/>
+      <c r="M26" s="189"/>
+      <c r="N26" s="189"/>
+      <c r="O26" s="189"/>
+      <c r="P26" s="189"/>
+      <c r="Q26" s="189"/>
+      <c r="R26" s="189"/>
+      <c r="S26" s="189"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B27" s="73"/>
-      <c r="E27" s="67">
-        <v>105</v>
-      </c>
-      <c r="F27" s="67" t="s">
-        <v>127</v>
-      </c>
-      <c r="G27" s="67" t="s">
-        <v>160</v>
-      </c>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
       <c r="J27" s="74"/>
       <c r="K27" s="74"/>
-      <c r="L27" s="74"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="74"/>
-      <c r="O27" s="74"/>
-    </row>
-    <row r="28" spans="2:15">
+      <c r="L27" s="189"/>
+      <c r="M27" s="189"/>
+      <c r="N27" s="189"/>
+      <c r="O27" s="189"/>
+      <c r="P27" s="189"/>
+      <c r="Q27" s="189"/>
+      <c r="R27" s="189"/>
+      <c r="S27" s="189"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B28" s="73"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
       <c r="J28" s="74"/>
       <c r="K28" s="74"/>
-      <c r="L28" s="74"/>
-      <c r="M28" s="74"/>
-      <c r="N28" s="74"/>
-      <c r="O28" s="74"/>
-    </row>
-    <row r="29" spans="2:15">
+      <c r="L28" s="189"/>
+      <c r="M28" s="189"/>
+      <c r="N28" s="189"/>
+      <c r="O28" s="189"/>
+      <c r="P28" s="189"/>
+      <c r="Q28" s="189"/>
+      <c r="R28" s="189"/>
+      <c r="S28" s="189"/>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B29" s="73"/>
-      <c r="E29" s="67">
-        <v>33.6</v>
-      </c>
-      <c r="F29" s="67" t="s">
-        <v>134</v>
-      </c>
-      <c r="G29" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="I29" s="150"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
       <c r="J29" s="74"/>
       <c r="K29" s="74"/>
       <c r="L29" s="74"/>
@@ -6430,18 +6847,15 @@
       <c r="N29" s="74"/>
       <c r="O29" s="74"/>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B30" s="73"/>
-      <c r="E30" s="67">
-        <f>E29*$H$8</f>
-        <v>4035.36</v>
-      </c>
-      <c r="F30" s="67" t="s">
-        <v>135</v>
-      </c>
-      <c r="G30" s="67" t="s">
-        <v>133</v>
-      </c>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
       <c r="J30" s="74"/>
       <c r="K30" s="74"/>
       <c r="L30" s="74"/>
@@ -6449,18 +6863,15 @@
       <c r="N30" s="74"/>
       <c r="O30" s="74"/>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B31" s="73"/>
-      <c r="E31" s="67">
-        <f>E30*2</f>
-        <v>8070.72</v>
-      </c>
-      <c r="F31" s="67" t="s">
-        <v>135</v>
-      </c>
-      <c r="G31" s="67" t="s">
-        <v>158</v>
-      </c>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="74"/>
       <c r="J31" s="74"/>
       <c r="K31" s="74"/>
       <c r="L31" s="74"/>
@@ -6468,8 +6879,15 @@
       <c r="N31" s="74"/>
       <c r="O31" s="74"/>
     </row>
-    <row r="32" spans="2:15">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B32" s="73"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74"/>
       <c r="J32" s="74"/>
       <c r="K32" s="74"/>
       <c r="L32" s="74"/>
@@ -6477,18 +6895,19 @@
       <c r="N32" s="74"/>
       <c r="O32" s="74"/>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="73"/>
-      <c r="E33" s="67">
-        <f>E30/3600</f>
-        <v>1.1209333333333333</v>
-      </c>
-      <c r="F33" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="G33" s="67" t="s">
-        <v>136</v>
-      </c>
+      <c r="C33" s="74" t="s">
+        <v>215</v>
+      </c>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74" t="s">
+        <v>216</v>
+      </c>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
       <c r="J33" s="74"/>
       <c r="K33" s="74"/>
       <c r="L33" s="74"/>
@@ -6496,18 +6915,15 @@
       <c r="N33" s="74"/>
       <c r="O33" s="74"/>
     </row>
-    <row r="34" spans="2:15">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="73"/>
-      <c r="E34" s="67">
-        <f>E31/3600</f>
-        <v>2.2418666666666667</v>
-      </c>
-      <c r="F34" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="G34" s="67" t="s">
-        <v>159</v>
-      </c>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
       <c r="J34" s="74"/>
       <c r="K34" s="74"/>
       <c r="L34" s="74"/>
@@ -6515,8 +6931,17 @@
       <c r="N34" s="74"/>
       <c r="O34" s="74"/>
     </row>
-    <row r="35" spans="2:15">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35" s="73"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74" t="s">
+        <v>220</v>
+      </c>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
       <c r="J35" s="74"/>
       <c r="K35" s="74"/>
       <c r="L35" s="74"/>
@@ -6524,17 +6949,17 @@
       <c r="N35" s="74"/>
       <c r="O35" s="74"/>
     </row>
-    <row r="36" spans="2:15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="73"/>
-      <c r="E36" s="67">
-        <v>2.7</v>
-      </c>
-      <c r="F36" s="67" t="s">
-        <v>124</v>
-      </c>
-      <c r="G36" s="67" t="s">
-        <v>130</v>
-      </c>
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="F36" s="74"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="74"/>
       <c r="J36" s="74"/>
       <c r="K36" s="74"/>
       <c r="L36" s="74"/>
@@ -6542,18 +6967,10 @@
       <c r="N36" s="74"/>
       <c r="O36" s="74"/>
     </row>
-    <row r="37" spans="2:15">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="73"/>
-      <c r="E37" s="67">
-        <f>E36*3.6</f>
-        <v>9.7200000000000006</v>
-      </c>
-      <c r="F37" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="G37" s="67" t="s">
-        <v>130</v>
-      </c>
+      <c r="D37" s="74"/>
+      <c r="I37" s="74"/>
       <c r="J37" s="74"/>
       <c r="K37" s="74"/>
       <c r="L37" s="74"/>
@@ -6561,8 +6978,11 @@
       <c r="N37" s="74"/>
       <c r="O37" s="74"/>
     </row>
-    <row r="38" spans="2:15">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38" s="73"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
+      <c r="I38" s="74"/>
       <c r="J38" s="74"/>
       <c r="K38" s="74"/>
       <c r="L38" s="74"/>
@@ -6570,8 +6990,11 @@
       <c r="N38" s="74"/>
       <c r="O38" s="74"/>
     </row>
-    <row r="39" spans="2:15">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39" s="73"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="I39" s="74"/>
       <c r="J39" s="74"/>
       <c r="K39" s="74"/>
       <c r="L39" s="74"/>
@@ -6579,15 +7002,15 @@
       <c r="N39" s="74"/>
       <c r="O39" s="74"/>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B40" s="73"/>
-      <c r="E40" s="67">
-        <f>E37/($H$8+E37)</f>
-        <v>7.487290093976276E-2</v>
-      </c>
-      <c r="G40" s="67" t="s">
-        <v>64</v>
-      </c>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
       <c r="J40" s="74"/>
       <c r="K40" s="74"/>
       <c r="L40" s="74"/>
@@ -6595,15 +7018,11 @@
       <c r="N40" s="74"/>
       <c r="O40" s="74"/>
     </row>
-    <row r="41" spans="2:15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41" s="73"/>
-      <c r="E41" s="67">
-        <f>$H$8/($H$8+E37)</f>
-        <v>0.92512709906023727</v>
-      </c>
-      <c r="G41" s="67" t="s">
-        <v>141</v>
-      </c>
+      <c r="G41" s="74"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="74"/>
       <c r="J41" s="74"/>
       <c r="K41" s="74"/>
       <c r="L41" s="74"/>
@@ -6611,228 +7030,329 @@
       <c r="N41" s="74"/>
       <c r="O41" s="74"/>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B42" s="73"/>
-      <c r="E42" s="67">
-        <f>E41</f>
-        <v>0.92512709906023727</v>
-      </c>
-      <c r="G42" s="67" t="s">
-        <v>98</v>
-      </c>
+      <c r="C42" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="G42" s="74"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="74"/>
+      <c r="J42" s="74"/>
       <c r="K42" s="74"/>
       <c r="L42" s="74"/>
       <c r="M42" s="74"/>
       <c r="N42" s="74"/>
       <c r="O42" s="74"/>
     </row>
-    <row r="43" spans="2:15">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" s="73"/>
+      <c r="J43" s="74"/>
       <c r="K43" s="74"/>
       <c r="L43" s="74"/>
       <c r="M43" s="74"/>
       <c r="N43" s="74"/>
       <c r="O43" s="74"/>
     </row>
-    <row r="44" spans="2:15">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" s="73"/>
-      <c r="C44" s="74"/>
-      <c r="E44" s="67">
-        <f>E33*$E$42</f>
-        <v>1.0370058029065887</v>
-      </c>
-      <c r="F44" s="74" t="s">
-        <v>65</v>
-      </c>
-      <c r="G44" s="67" t="s">
-        <v>66</v>
-      </c>
+      <c r="J44" s="74"/>
       <c r="K44" s="74"/>
       <c r="L44" s="74"/>
       <c r="M44" s="74"/>
       <c r="N44" s="74"/>
       <c r="O44" s="74"/>
     </row>
-    <row r="45" spans="2:15">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" s="73"/>
-      <c r="C45" s="74"/>
+      <c r="C45" s="67" t="s">
+        <v>131</v>
+      </c>
       <c r="E45" s="67">
-        <f>E44/E42</f>
-        <v>1.1209333333333333</v>
+        <f>4.2*2.7</f>
+        <v>11.340000000000002</v>
       </c>
       <c r="F45" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="G45" s="67" t="s">
-        <v>196</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="J45" s="74"/>
       <c r="K45" s="74"/>
       <c r="L45" s="74"/>
       <c r="M45" s="74"/>
       <c r="N45" s="74"/>
       <c r="O45" s="74"/>
     </row>
-    <row r="46" spans="2:15">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46" s="73"/>
-      <c r="C46" s="74"/>
-      <c r="E46" s="101"/>
-      <c r="F46" s="74"/>
+      <c r="C46" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="E46" s="67">
+        <f>E45/1000/1000</f>
+        <v>1.1340000000000002E-5</v>
+      </c>
+      <c r="F46" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="J46" s="74"/>
       <c r="K46" s="74"/>
       <c r="L46" s="74"/>
       <c r="M46" s="74"/>
       <c r="N46" s="74"/>
       <c r="O46" s="74"/>
     </row>
-    <row r="47" spans="2:15">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B47" s="73"/>
-      <c r="C47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="74"/>
+      <c r="J47" s="74"/>
       <c r="K47" s="74"/>
       <c r="L47" s="74"/>
       <c r="M47" s="74"/>
       <c r="N47" s="74"/>
       <c r="O47" s="74"/>
     </row>
-    <row r="48" spans="2:15">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48" s="73"/>
+      <c r="E48" s="67">
+        <v>105</v>
+      </c>
+      <c r="F48" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="G48" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="J48" s="74"/>
       <c r="K48" s="74"/>
       <c r="L48" s="74"/>
       <c r="M48" s="74"/>
       <c r="N48" s="74"/>
       <c r="O48" s="74"/>
     </row>
-    <row r="49" spans="2:15">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B49" s="73"/>
+      <c r="J49" s="74"/>
       <c r="K49" s="74"/>
       <c r="L49" s="74"/>
       <c r="M49" s="74"/>
       <c r="N49" s="74"/>
       <c r="O49" s="74"/>
     </row>
-    <row r="50" spans="2:15" ht="16">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B50" s="73"/>
-      <c r="C50" s="74"/>
-      <c r="J50"/>
+      <c r="E50" s="67">
+        <v>33.6</v>
+      </c>
+      <c r="F50" s="67" t="s">
+        <v>134</v>
+      </c>
+      <c r="G50" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="I50" s="150"/>
+      <c r="J50" s="74"/>
       <c r="K50" s="74"/>
       <c r="L50" s="74"/>
       <c r="M50" s="74"/>
       <c r="N50" s="74"/>
       <c r="O50" s="74"/>
     </row>
-    <row r="51" spans="2:15">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B51" s="73"/>
-      <c r="C51" s="74"/>
-      <c r="D51" s="74"/>
+      <c r="E51" s="67">
+        <f>E50*$H$8</f>
+        <v>4035.36</v>
+      </c>
+      <c r="F51" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="G51" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="J51" s="74"/>
       <c r="K51" s="74"/>
       <c r="L51" s="74"/>
       <c r="M51" s="74"/>
       <c r="N51" s="74"/>
       <c r="O51" s="74"/>
     </row>
-    <row r="52" spans="2:15">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B52" s="73"/>
-      <c r="C52" s="162" t="s">
-        <v>188</v>
-      </c>
-      <c r="D52" s="74"/>
+      <c r="E52" s="67">
+        <f>E51*2</f>
+        <v>8070.72</v>
+      </c>
+      <c r="F52" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="G52" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="J52" s="74"/>
       <c r="K52" s="74"/>
       <c r="L52" s="74"/>
       <c r="M52" s="74"/>
       <c r="N52" s="74"/>
       <c r="O52" s="74"/>
     </row>
-    <row r="53" spans="2:15">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B53" s="73"/>
-      <c r="D53" s="74"/>
+      <c r="J53" s="74"/>
       <c r="K53" s="74"/>
       <c r="L53" s="74"/>
       <c r="M53" s="74"/>
       <c r="N53" s="74"/>
       <c r="O53" s="74"/>
     </row>
-    <row r="54" spans="2:15">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B54" s="73"/>
+      <c r="E54" s="67">
+        <f>E51/3600</f>
+        <v>1.1209333333333333</v>
+      </c>
+      <c r="F54" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="G54" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="J54" s="74"/>
       <c r="K54" s="74"/>
       <c r="L54" s="74"/>
       <c r="M54" s="74"/>
       <c r="N54" s="74"/>
       <c r="O54" s="74"/>
     </row>
-    <row r="55" spans="2:15">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B55" s="73"/>
+      <c r="E55" s="67">
+        <f>E52/3600</f>
+        <v>2.2418666666666667</v>
+      </c>
+      <c r="F55" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="G55" s="67" t="s">
+        <v>159</v>
+      </c>
+      <c r="J55" s="74"/>
       <c r="K55" s="74"/>
       <c r="L55" s="74"/>
       <c r="M55" s="74"/>
       <c r="N55" s="74"/>
       <c r="O55" s="74"/>
     </row>
-    <row r="56" spans="2:15">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B56" s="73"/>
+      <c r="J56" s="74"/>
       <c r="K56" s="74"/>
       <c r="L56" s="74"/>
       <c r="M56" s="74"/>
       <c r="N56" s="74"/>
       <c r="O56" s="74"/>
     </row>
-    <row r="57" spans="2:15">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B57" s="73"/>
-      <c r="D57" s="74"/>
+      <c r="E57" s="67">
+        <v>2.7</v>
+      </c>
+      <c r="F57" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="G57" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="J57" s="74"/>
       <c r="K57" s="74"/>
       <c r="L57" s="74"/>
       <c r="M57" s="74"/>
       <c r="N57" s="74"/>
       <c r="O57" s="74"/>
     </row>
-    <row r="58" spans="2:15">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B58" s="73"/>
+      <c r="E58" s="67">
+        <f>E57*3.6</f>
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="F58" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="G58" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="J58" s="74"/>
       <c r="K58" s="74"/>
       <c r="L58" s="74"/>
       <c r="M58" s="74"/>
       <c r="N58" s="74"/>
       <c r="O58" s="74"/>
     </row>
-    <row r="59" spans="2:15">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B59" s="73"/>
+      <c r="J59" s="74"/>
       <c r="K59" s="74"/>
       <c r="L59" s="74"/>
       <c r="M59" s="74"/>
       <c r="N59" s="74"/>
       <c r="O59" s="74"/>
     </row>
-    <row r="60" spans="2:15">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B60" s="73"/>
+      <c r="J60" s="74"/>
       <c r="K60" s="74"/>
       <c r="L60" s="74"/>
       <c r="M60" s="74"/>
       <c r="N60" s="74"/>
       <c r="O60" s="74"/>
     </row>
-    <row r="61" spans="2:15">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B61" s="73"/>
+      <c r="E61" s="67">
+        <f>E58/($H$8+E58)</f>
+        <v>7.487290093976276E-2</v>
+      </c>
+      <c r="G61" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="J61" s="74"/>
       <c r="K61" s="74"/>
       <c r="L61" s="74"/>
       <c r="M61" s="74"/>
       <c r="N61" s="74"/>
       <c r="O61" s="74"/>
     </row>
-    <row r="62" spans="2:15">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B62" s="73"/>
+      <c r="E62" s="67">
+        <f>$H$8/($H$8+E58)</f>
+        <v>0.92512709906023727</v>
+      </c>
+      <c r="G62" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="J62" s="74"/>
       <c r="K62" s="74"/>
       <c r="L62" s="74"/>
       <c r="M62" s="74"/>
       <c r="N62" s="74"/>
       <c r="O62" s="74"/>
     </row>
-    <row r="63" spans="2:15">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B63" s="73"/>
+      <c r="E63" s="67">
+        <f>E62</f>
+        <v>0.92512709906023727</v>
+      </c>
+      <c r="G63" s="67" t="s">
+        <v>98</v>
+      </c>
       <c r="K63" s="74"/>
       <c r="L63" s="74"/>
       <c r="M63" s="74"/>
       <c r="N63" s="74"/>
       <c r="O63" s="74"/>
     </row>
-    <row r="64" spans="2:15">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B64" s="73"/>
       <c r="K64" s="74"/>
       <c r="L64" s="74"/>
@@ -6840,1103 +7360,1476 @@
       <c r="N64" s="74"/>
       <c r="O64" s="74"/>
     </row>
-    <row r="65" spans="2:15">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B65" s="73"/>
+      <c r="C65" s="74"/>
+      <c r="E65" s="67">
+        <f>E54*$E$63</f>
+        <v>1.0370058029065887</v>
+      </c>
+      <c r="F65" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="G65" s="67" t="s">
+        <v>66</v>
+      </c>
       <c r="K65" s="74"/>
       <c r="L65" s="74"/>
       <c r="M65" s="74"/>
       <c r="N65" s="74"/>
       <c r="O65" s="74"/>
     </row>
-    <row r="66" spans="2:15">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B66" s="73"/>
+      <c r="C66" s="74"/>
+      <c r="E66" s="67">
+        <f>E65/E63</f>
+        <v>1.1209333333333333</v>
+      </c>
+      <c r="F66" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="G66" s="67" t="s">
+        <v>196</v>
+      </c>
       <c r="K66" s="74"/>
       <c r="L66" s="74"/>
       <c r="M66" s="74"/>
       <c r="N66" s="74"/>
       <c r="O66" s="74"/>
     </row>
-    <row r="67" spans="2:15">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B67" s="73"/>
+      <c r="C67" s="74"/>
+      <c r="E67" s="101"/>
+      <c r="F67" s="74"/>
       <c r="K67" s="74"/>
       <c r="L67" s="74"/>
       <c r="M67" s="74"/>
       <c r="N67" s="74"/>
       <c r="O67" s="74"/>
     </row>
-    <row r="68" spans="2:15">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B68" s="73"/>
+      <c r="C68" s="74"/>
+      <c r="E68" s="74"/>
+      <c r="F68" s="74"/>
       <c r="K68" s="74"/>
       <c r="L68" s="74"/>
       <c r="M68" s="74"/>
       <c r="N68" s="74"/>
       <c r="O68" s="74"/>
     </row>
-    <row r="69" spans="2:15">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B69" s="73"/>
-      <c r="C69" s="74"/>
       <c r="K69" s="74"/>
       <c r="L69" s="74"/>
       <c r="M69" s="74"/>
       <c r="N69" s="74"/>
       <c r="O69" s="74"/>
     </row>
-    <row r="70" spans="2:15">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B70" s="73"/>
-      <c r="C70" s="74"/>
+      <c r="K70" s="74"/>
       <c r="L70" s="74"/>
       <c r="M70" s="74"/>
       <c r="N70" s="74"/>
       <c r="O70" s="74"/>
     </row>
-    <row r="71" spans="2:15">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B71" s="73"/>
       <c r="C71" s="74"/>
+      <c r="J71"/>
+      <c r="K71" s="74"/>
       <c r="L71" s="74"/>
       <c r="M71" s="74"/>
       <c r="N71" s="74"/>
       <c r="O71" s="74"/>
     </row>
-    <row r="72" spans="2:15">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B72" s="73"/>
       <c r="C72" s="74"/>
-      <c r="E72" s="67">
-        <v>2.67</v>
-      </c>
-      <c r="F72" s="67" t="s">
-        <v>124</v>
-      </c>
-      <c r="G72" s="67" t="s">
-        <v>125</v>
-      </c>
+      <c r="D72" s="74"/>
+      <c r="K72" s="74"/>
       <c r="L72" s="74"/>
       <c r="M72" s="74"/>
       <c r="N72" s="74"/>
       <c r="O72" s="74"/>
     </row>
-    <row r="73" spans="2:15">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B73" s="73"/>
-      <c r="C73" s="74"/>
-      <c r="E73" s="67">
-        <v>0.18</v>
-      </c>
-      <c r="F73" s="67" t="s">
-        <v>124</v>
-      </c>
-      <c r="G73" s="67" t="s">
-        <v>126</v>
-      </c>
+      <c r="C73" s="162" t="s">
+        <v>188</v>
+      </c>
+      <c r="D73" s="74"/>
       <c r="K73" s="74"/>
       <c r="L73" s="74"/>
       <c r="M73" s="74"/>
       <c r="N73" s="74"/>
       <c r="O73" s="74"/>
     </row>
-    <row r="74" spans="2:15">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B74" s="73"/>
-      <c r="C74" s="74"/>
-      <c r="E74" s="67">
-        <f>E72+E73</f>
-        <v>2.85</v>
-      </c>
-      <c r="F74" s="67" t="s">
-        <v>124</v>
-      </c>
+      <c r="D74" s="74"/>
       <c r="K74" s="74"/>
       <c r="L74" s="74"/>
       <c r="M74" s="74"/>
       <c r="N74" s="74"/>
       <c r="O74" s="74"/>
     </row>
-    <row r="75" spans="2:15">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B75" s="73"/>
-      <c r="E75" s="67">
-        <f>E74*3.6</f>
-        <v>10.26</v>
-      </c>
-      <c r="F75" s="67" t="s">
-        <v>128</v>
-      </c>
       <c r="K75" s="74"/>
       <c r="L75" s="74"/>
       <c r="M75" s="74"/>
       <c r="N75" s="74"/>
       <c r="O75" s="74"/>
     </row>
-    <row r="76" spans="2:15">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B76" s="73"/>
+      <c r="K76" s="74"/>
       <c r="L76" s="74"/>
       <c r="M76" s="74"/>
       <c r="N76" s="74"/>
       <c r="O76" s="74"/>
     </row>
-    <row r="77" spans="2:15">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B77" s="73"/>
-      <c r="E77" s="67">
-        <v>120.1</v>
-      </c>
-      <c r="F77" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="G77" s="67" t="s">
-        <v>129</v>
-      </c>
+      <c r="K77" s="74"/>
+      <c r="L77" s="74"/>
+      <c r="M77" s="74"/>
       <c r="N77" s="74"/>
       <c r="O77" s="74"/>
     </row>
-    <row r="78" spans="2:15">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B78" s="73"/>
+      <c r="D78" s="74"/>
+      <c r="K78" s="74"/>
+      <c r="L78" s="74"/>
+      <c r="M78" s="74"/>
       <c r="N78" s="74"/>
       <c r="O78" s="74"/>
     </row>
-    <row r="79" spans="2:15">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="73"/>
+      <c r="K79" s="74"/>
+      <c r="L79" s="74"/>
+      <c r="M79" s="74"/>
       <c r="N79" s="74"/>
       <c r="O79" s="74"/>
     </row>
-    <row r="80" spans="2:15">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B80" s="73"/>
-      <c r="E80" s="67">
-        <f>1-E81</f>
-        <v>7.8705124271248761E-2</v>
-      </c>
-      <c r="G80" s="67" t="s">
-        <v>64</v>
-      </c>
+      <c r="K80" s="74"/>
+      <c r="L80" s="74"/>
+      <c r="M80" s="74"/>
       <c r="N80" s="74"/>
       <c r="O80" s="74"/>
     </row>
-    <row r="81" spans="2:15">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B81" s="73"/>
-      <c r="E81" s="67">
-        <f>E82</f>
-        <v>0.92129487572875124</v>
-      </c>
-      <c r="G81" s="67" t="s">
-        <v>141</v>
-      </c>
+      <c r="K81" s="74"/>
+      <c r="L81" s="74"/>
+      <c r="M81" s="74"/>
       <c r="N81" s="74"/>
       <c r="O81" s="74"/>
     </row>
-    <row r="82" spans="2:15">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B82" s="73"/>
-      <c r="E82" s="67">
-        <f>E77/(E75+E77)</f>
-        <v>0.92129487572875124</v>
-      </c>
-      <c r="G82" s="67" t="s">
-        <v>98</v>
-      </c>
+      <c r="K82" s="74"/>
+      <c r="L82" s="74"/>
+      <c r="M82" s="74"/>
       <c r="N82" s="74"/>
       <c r="O82" s="74"/>
     </row>
-    <row r="83" spans="2:15">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B83" s="73"/>
+      <c r="K83" s="74"/>
+      <c r="L83" s="74"/>
+      <c r="M83" s="74"/>
       <c r="N83" s="74"/>
       <c r="O83" s="74"/>
     </row>
-    <row r="84" spans="2:15">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B84" s="73"/>
+      <c r="K84" s="74"/>
+      <c r="L84" s="74"/>
+      <c r="M84" s="74"/>
       <c r="N84" s="74"/>
       <c r="O84" s="74"/>
     </row>
-    <row r="85" spans="2:15">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B85" s="73"/>
+      <c r="K85" s="74"/>
+      <c r="L85" s="74"/>
+      <c r="M85" s="74"/>
       <c r="N85" s="74"/>
       <c r="O85" s="74"/>
     </row>
-    <row r="86" spans="2:15">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B86" s="73"/>
+      <c r="K86" s="74"/>
+      <c r="L86" s="74"/>
+      <c r="M86" s="74"/>
       <c r="N86" s="74"/>
       <c r="O86" s="74"/>
     </row>
-    <row r="87" spans="2:15">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B87" s="73"/>
+      <c r="K87" s="74"/>
+      <c r="L87" s="74"/>
+      <c r="M87" s="74"/>
       <c r="N87" s="74"/>
       <c r="O87" s="74"/>
     </row>
-    <row r="88" spans="2:15">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B88" s="73"/>
+      <c r="K88" s="74"/>
+      <c r="L88" s="74"/>
+      <c r="M88" s="74"/>
       <c r="N88" s="74"/>
       <c r="O88" s="74"/>
     </row>
-    <row r="89" spans="2:15">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B89" s="73"/>
+      <c r="K89" s="74"/>
+      <c r="L89" s="74"/>
+      <c r="M89" s="74"/>
       <c r="N89" s="74"/>
       <c r="O89" s="74"/>
     </row>
-    <row r="90" spans="2:15">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B90" s="73"/>
+      <c r="C90" s="74"/>
+      <c r="K90" s="74"/>
+      <c r="L90" s="74"/>
+      <c r="M90" s="74"/>
       <c r="N90" s="74"/>
       <c r="O90" s="74"/>
     </row>
-    <row r="91" spans="2:15">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B91" s="73"/>
+      <c r="C91" s="74"/>
+      <c r="L91" s="74"/>
+      <c r="M91" s="74"/>
       <c r="N91" s="74"/>
       <c r="O91" s="74"/>
     </row>
-    <row r="92" spans="2:15">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B92" s="73"/>
+      <c r="C92" s="74"/>
+      <c r="L92" s="74"/>
+      <c r="M92" s="74"/>
       <c r="N92" s="74"/>
       <c r="O92" s="74"/>
     </row>
-    <row r="93" spans="2:15">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B93" s="73"/>
+      <c r="C93" s="74"/>
+      <c r="E93" s="67">
+        <v>2.67</v>
+      </c>
+      <c r="F93" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="G93" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="L93" s="74"/>
+      <c r="M93" s="74"/>
       <c r="N93" s="74"/>
       <c r="O93" s="74"/>
     </row>
-    <row r="94" spans="2:15">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B94" s="73"/>
+      <c r="C94" s="74"/>
+      <c r="E94" s="67">
+        <v>0.18</v>
+      </c>
+      <c r="F94" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="G94" s="67" t="s">
+        <v>126</v>
+      </c>
+      <c r="K94" s="74"/>
+      <c r="L94" s="74"/>
+      <c r="M94" s="74"/>
       <c r="N94" s="74"/>
       <c r="O94" s="74"/>
     </row>
-    <row r="95" spans="2:15">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B95" s="73"/>
+      <c r="C95" s="74"/>
+      <c r="E95" s="67">
+        <f>E93+E94</f>
+        <v>2.85</v>
+      </c>
+      <c r="F95" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="K95" s="74"/>
+      <c r="L95" s="74"/>
+      <c r="M95" s="74"/>
       <c r="N95" s="74"/>
       <c r="O95" s="74"/>
     </row>
-    <row r="96" spans="2:15">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B96" s="73"/>
+      <c r="E96" s="67">
+        <f>E95*3.6</f>
+        <v>10.26</v>
+      </c>
+      <c r="F96" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="K96" s="74"/>
+      <c r="L96" s="74"/>
+      <c r="M96" s="74"/>
       <c r="N96" s="74"/>
       <c r="O96" s="74"/>
     </row>
-    <row r="97" spans="2:15">
+    <row r="97" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B97" s="73"/>
+      <c r="L97" s="74"/>
+      <c r="M97" s="74"/>
       <c r="N97" s="74"/>
       <c r="O97" s="74"/>
     </row>
-    <row r="98" spans="2:15">
+    <row r="98" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B98" s="73"/>
+      <c r="E98" s="67">
+        <v>120.1</v>
+      </c>
+      <c r="F98" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="G98" s="67" t="s">
+        <v>129</v>
+      </c>
       <c r="N98" s="74"/>
       <c r="O98" s="74"/>
     </row>
-    <row r="99" spans="2:15">
+    <row r="99" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B99" s="73"/>
       <c r="N99" s="74"/>
       <c r="O99" s="74"/>
     </row>
-    <row r="100" spans="2:15">
+    <row r="100" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B100" s="73"/>
       <c r="N100" s="74"/>
       <c r="O100" s="74"/>
     </row>
-    <row r="101" spans="2:15">
+    <row r="101" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B101" s="73"/>
-      <c r="C101" s="71" t="s">
-        <v>123</v>
+      <c r="E101" s="67">
+        <f>1-E102</f>
+        <v>7.8705124271248761E-2</v>
+      </c>
+      <c r="G101" s="67" t="s">
+        <v>64</v>
       </c>
       <c r="N101" s="74"/>
       <c r="O101" s="74"/>
     </row>
-    <row r="102" spans="2:15">
+    <row r="102" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B102" s="73"/>
-      <c r="C102" s="71" t="s">
-        <v>151</v>
+      <c r="E102" s="67">
+        <f>E103</f>
+        <v>0.92129487572875124</v>
+      </c>
+      <c r="G102" s="67" t="s">
+        <v>141</v>
       </c>
       <c r="N102" s="74"/>
       <c r="O102" s="74"/>
     </row>
-    <row r="103" spans="2:15">
+    <row r="103" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B103" s="73"/>
+      <c r="E103" s="67">
+        <f>E98/(E96+E98)</f>
+        <v>0.92129487572875124</v>
+      </c>
+      <c r="G103" s="67" t="s">
+        <v>206</v>
+      </c>
       <c r="N103" s="74"/>
       <c r="O103" s="74"/>
     </row>
-    <row r="104" spans="2:15">
+    <row r="104" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B104" s="73"/>
       <c r="N104" s="74"/>
       <c r="O104" s="74"/>
     </row>
-    <row r="105" spans="2:15">
+    <row r="105" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B105" s="73"/>
       <c r="E105" s="67">
-        <v>20</v>
+        <v>3.1</v>
       </c>
       <c r="F105" s="67" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G105" s="67" t="s">
-        <v>101</v>
+        <v>205</v>
       </c>
       <c r="N105" s="74"/>
       <c r="O105" s="74"/>
     </row>
-    <row r="106" spans="2:15">
+    <row r="106" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B106" s="73"/>
       <c r="E106" s="67">
-        <v>300</v>
+        <f>E105*3.6</f>
+        <v>11.16</v>
       </c>
       <c r="F106" s="67" t="s">
-        <v>152</v>
-      </c>
-      <c r="G106" s="67" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="N106" s="74"/>
       <c r="O106" s="74"/>
     </row>
-    <row r="107" spans="2:15">
+    <row r="107" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B107" s="73"/>
       <c r="N107" s="74"/>
       <c r="O107" s="74"/>
     </row>
-    <row r="108" spans="2:15">
+    <row r="108" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B108" s="73"/>
+      <c r="E108" s="67">
+        <f>E98/(E106+E98)</f>
+        <v>0.91497790644522325</v>
+      </c>
+      <c r="G108" s="67" t="s">
+        <v>207</v>
+      </c>
       <c r="N108" s="74"/>
       <c r="O108" s="74"/>
     </row>
-    <row r="109" spans="2:15">
+    <row r="109" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B109" s="73"/>
       <c r="N109" s="74"/>
       <c r="O109" s="74"/>
     </row>
-    <row r="110" spans="2:15">
+    <row r="110" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B110" s="73"/>
+      <c r="G110" s="67" t="str">
+        <f>E18</f>
+        <v>Hydrogen car  requires compression to 700 bar</v>
+      </c>
       <c r="N110" s="74"/>
       <c r="O110" s="74"/>
     </row>
-    <row r="111" spans="2:15">
+    <row r="111" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B111" s="73"/>
+      <c r="G111" s="67" t="str">
+        <f>E19</f>
+        <v>Hydrogen truck  requires compression to 350 bar</v>
+      </c>
       <c r="N111" s="74"/>
       <c r="O111" s="74"/>
     </row>
-    <row r="112" spans="2:15">
+    <row r="112" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B112" s="73"/>
+      <c r="E112" s="67">
+        <v>119</v>
+      </c>
+      <c r="F112" s="67" t="s">
+        <v>208</v>
+      </c>
+      <c r="G112" s="67" t="s">
+        <v>209</v>
+      </c>
       <c r="N112" s="74"/>
       <c r="O112" s="74"/>
     </row>
-    <row r="113" spans="2:15">
+    <row r="113" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B113" s="73"/>
+      <c r="E113" s="67">
+        <v>21.1</v>
+      </c>
+      <c r="F113" s="67" t="s">
+        <v>208</v>
+      </c>
+      <c r="G113" s="67" t="s">
+        <v>210</v>
+      </c>
       <c r="N113" s="74"/>
       <c r="O113" s="74"/>
     </row>
-    <row r="114" spans="2:15">
+    <row r="114" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B114" s="73"/>
       <c r="N114" s="74"/>
       <c r="O114" s="74"/>
     </row>
-    <row r="115" spans="2:15">
+    <row r="115" spans="2:15" ht="48" x14ac:dyDescent="0.2">
       <c r="B115" s="73"/>
+      <c r="E115" s="188" t="s">
+        <v>211</v>
+      </c>
+      <c r="G115" s="67" t="s">
+        <v>174</v>
+      </c>
       <c r="N115" s="74"/>
       <c r="O115" s="74"/>
     </row>
-    <row r="116" spans="2:15">
-      <c r="B116" s="73"/>
-      <c r="N116" s="74"/>
-      <c r="O116" s="74"/>
-    </row>
-    <row r="117" spans="2:15">
+    <row r="116" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E116" s="67" t="str">
+        <f>E18</f>
+        <v>Hydrogen car  requires compression to 700 bar</v>
+      </c>
+    </row>
+    <row r="117" spans="2:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="73"/>
+      <c r="E117" s="67" t="str">
+        <f>E19</f>
+        <v>Hydrogen truck  requires compression to 350 bar</v>
+      </c>
       <c r="N117" s="74"/>
       <c r="O117" s="74"/>
     </row>
-    <row r="118" spans="2:15">
+    <row r="118" spans="2:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="73"/>
       <c r="N118" s="74"/>
       <c r="O118" s="74"/>
     </row>
-    <row r="119" spans="2:15">
+    <row r="119" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B119" s="73"/>
+      <c r="E119" s="67">
+        <v>1.0204</v>
+      </c>
+      <c r="F119" s="185" t="s">
+        <v>223</v>
+      </c>
+      <c r="G119" s="67" t="s">
+        <v>224</v>
+      </c>
       <c r="N119" s="74"/>
       <c r="O119" s="74"/>
     </row>
-    <row r="120" spans="2:15">
+    <row r="120" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B120" s="73"/>
+      <c r="E120" s="67">
+        <v>0.14706</v>
+      </c>
+      <c r="F120" s="185" t="s">
+        <v>223</v>
+      </c>
+      <c r="G120" s="67" t="s">
+        <v>225</v>
+      </c>
       <c r="N120" s="74"/>
       <c r="O120" s="74"/>
     </row>
-    <row r="121" spans="2:15">
+    <row r="121" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B121" s="73"/>
-      <c r="C121" s="71" t="s">
-        <v>144</v>
+      <c r="E121" s="67">
+        <f>(E112/E119)/(E112/E119+E113/E120)</f>
+        <v>0.44836997041806703</v>
+      </c>
+      <c r="F121" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="G121" s="67" t="s">
+        <v>226</v>
       </c>
       <c r="N121" s="74"/>
       <c r="O121" s="74"/>
     </row>
-    <row r="122" spans="2:15">
+    <row r="122" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B122" s="73"/>
+      <c r="E122" s="67">
+        <f>(E113/E120)/(E112/E119+E113/E120)</f>
+        <v>0.55163002958193297</v>
+      </c>
+      <c r="F122" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="G122" s="67" t="s">
+        <v>226</v>
+      </c>
       <c r="N122" s="74"/>
       <c r="O122" s="74"/>
     </row>
-    <row r="123" spans="2:15">
+    <row r="123" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B123" s="73"/>
       <c r="N123" s="74"/>
       <c r="O123" s="74"/>
     </row>
-    <row r="124" spans="2:15">
+    <row r="124" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B124" s="73"/>
       <c r="E124" s="67">
+        <f>E121*E103+E122*E108</f>
+        <v>0.91781024577601056</v>
+      </c>
+      <c r="G124" s="67" t="s">
+        <v>222</v>
+      </c>
+      <c r="N124" s="74"/>
+      <c r="O124" s="74"/>
+    </row>
+    <row r="125" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B125" s="73"/>
+      <c r="N125" s="74"/>
+      <c r="O125" s="74"/>
+    </row>
+    <row r="126" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B126" s="73"/>
+      <c r="C126" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="N126" s="74"/>
+      <c r="O126" s="74"/>
+    </row>
+    <row r="127" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B127" s="73"/>
+      <c r="C127" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="N127" s="74"/>
+      <c r="O127" s="74"/>
+    </row>
+    <row r="128" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B128" s="73"/>
+      <c r="N128" s="74"/>
+      <c r="O128" s="74"/>
+    </row>
+    <row r="129" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B129" s="73"/>
+      <c r="N129" s="74"/>
+      <c r="O129" s="74"/>
+    </row>
+    <row r="130" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B130" s="73"/>
+      <c r="E130" s="67">
+        <v>20</v>
+      </c>
+      <c r="F130" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="G130" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="N130" s="74"/>
+      <c r="O130" s="74"/>
+    </row>
+    <row r="131" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B131" s="73"/>
+      <c r="E131" s="67">
+        <v>300</v>
+      </c>
+      <c r="F131" s="67" t="s">
+        <v>152</v>
+      </c>
+      <c r="G131" s="67" t="s">
+        <v>153</v>
+      </c>
+      <c r="N131" s="74"/>
+      <c r="O131" s="74"/>
+    </row>
+    <row r="132" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B132" s="73"/>
+      <c r="N132" s="74"/>
+      <c r="O132" s="74"/>
+    </row>
+    <row r="133" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B133" s="73"/>
+      <c r="N133" s="74"/>
+      <c r="O133" s="74"/>
+    </row>
+    <row r="134" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B134" s="73"/>
+      <c r="N134" s="74"/>
+      <c r="O134" s="74"/>
+    </row>
+    <row r="135" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B135" s="73"/>
+      <c r="N135" s="74"/>
+      <c r="O135" s="74"/>
+    </row>
+    <row r="136" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B136" s="73"/>
+      <c r="N136" s="74"/>
+      <c r="O136" s="74"/>
+    </row>
+    <row r="137" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B137" s="73"/>
+      <c r="N137" s="74"/>
+      <c r="O137" s="74"/>
+    </row>
+    <row r="138" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B138" s="73"/>
+      <c r="N138" s="74"/>
+      <c r="O138" s="74"/>
+    </row>
+    <row r="139" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B139" s="73"/>
+      <c r="N139" s="74"/>
+      <c r="O139" s="74"/>
+    </row>
+    <row r="140" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B140" s="73"/>
+      <c r="N140" s="74"/>
+      <c r="O140" s="74"/>
+    </row>
+    <row r="141" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B141" s="73"/>
+      <c r="N141" s="74"/>
+      <c r="O141" s="74"/>
+    </row>
+    <row r="142" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B142" s="73"/>
+      <c r="N142" s="74"/>
+      <c r="O142" s="74"/>
+    </row>
+    <row r="143" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B143" s="73"/>
+      <c r="N143" s="74"/>
+      <c r="O143" s="74"/>
+    </row>
+    <row r="144" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B144" s="73"/>
+      <c r="N144" s="74"/>
+      <c r="O144" s="74"/>
+    </row>
+    <row r="145" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B145" s="73"/>
+      <c r="N145" s="74"/>
+      <c r="O145" s="74"/>
+    </row>
+    <row r="146" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B146" s="73"/>
+      <c r="C146" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="N146" s="74"/>
+      <c r="O146" s="74"/>
+    </row>
+    <row r="147" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B147" s="73"/>
+      <c r="N147" s="74"/>
+      <c r="O147" s="74"/>
+    </row>
+    <row r="148" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B148" s="73"/>
+      <c r="N148" s="74"/>
+      <c r="O148" s="74"/>
+    </row>
+    <row r="149" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B149" s="73"/>
+      <c r="E149" s="67">
         <f>18/32</f>
         <v>0.5625</v>
       </c>
-      <c r="G124" s="67" t="s">
+      <c r="G149" s="67" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="125" spans="2:15">
-      <c r="B125" s="73"/>
-      <c r="E125" s="67">
-        <f>E106*E124</f>
+    <row r="150" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B150" s="73"/>
+      <c r="E150" s="67">
+        <f>E131*E149</f>
         <v>168.75</v>
       </c>
-      <c r="F125" s="67" t="s">
+      <c r="F150" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="G125" s="67" t="s">
+      <c r="G150" s="67" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="126" spans="2:15">
-      <c r="B126" s="73"/>
-      <c r="E126" s="67">
-        <f>E125/$H$12</f>
-        <v>153.68852459016392</v>
-      </c>
-      <c r="F126" s="67" t="s">
-        <v>156</v>
-      </c>
-      <c r="G126" s="67" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="127" spans="2:15">
-      <c r="B127" s="73"/>
-    </row>
-    <row r="128" spans="2:15">
-      <c r="B128" s="73"/>
-    </row>
-    <row r="129" spans="2:7">
-      <c r="B129" s="73"/>
-    </row>
-    <row r="130" spans="2:7">
-      <c r="B130" s="73"/>
-    </row>
-    <row r="131" spans="2:7">
-      <c r="B131" s="73"/>
-    </row>
-    <row r="132" spans="2:7">
-      <c r="B132" s="73"/>
-    </row>
-    <row r="133" spans="2:7">
-      <c r="B133" s="73"/>
-      <c r="E133" s="67">
-        <f>$E$44*1000</f>
-        <v>1037.0058029065888</v>
-      </c>
-      <c r="F133" s="67" t="s">
-        <v>127</v>
-      </c>
-      <c r="G133" s="67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="134" spans="2:7">
-      <c r="B134" s="73"/>
-    </row>
-    <row r="135" spans="2:7">
-      <c r="B135" s="73"/>
-    </row>
-    <row r="136" spans="2:7">
-      <c r="B136" s="73"/>
-      <c r="E136" s="67">
-        <f>E133*E126</f>
-        <v>159375.89184015195</v>
-      </c>
-      <c r="F136" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="G136" s="67" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="137" spans="2:7">
-      <c r="B137" s="73"/>
-    </row>
-    <row r="138" spans="2:7">
-      <c r="B138" s="73"/>
-    </row>
-    <row r="139" spans="2:7">
-      <c r="B139" s="73"/>
-    </row>
-    <row r="140" spans="2:7">
-      <c r="B140" s="73"/>
-    </row>
-    <row r="141" spans="2:7">
-      <c r="B141" s="73"/>
-    </row>
-    <row r="142" spans="2:7">
-      <c r="B142" s="73"/>
-    </row>
-    <row r="143" spans="2:7">
-      <c r="B143" s="73"/>
-    </row>
-    <row r="144" spans="2:7">
-      <c r="B144" s="73"/>
-      <c r="G144" s="67" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="145" spans="2:7">
-      <c r="B145" s="73"/>
-      <c r="G145" s="67" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="146" spans="2:7">
-      <c r="B146" s="73"/>
-      <c r="G146" s="67" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="147" spans="2:7">
-      <c r="B147" s="73"/>
-    </row>
-    <row r="148" spans="2:7">
-      <c r="B148" s="73"/>
-      <c r="E148" s="67">
-        <v>0</v>
-      </c>
-      <c r="F148" s="67" t="s">
-        <v>74</v>
-      </c>
-      <c r="G148" s="67" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="149" spans="2:7">
-      <c r="B149" s="73"/>
-    </row>
-    <row r="150" spans="2:7">
-      <c r="B150" s="73"/>
-    </row>
-    <row r="151" spans="2:7">
+    <row r="151" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B151" s="73"/>
       <c r="E151" s="67">
+        <f>E150/$H$12</f>
+        <v>153.68852459016392</v>
+      </c>
+      <c r="F151" s="67" t="s">
+        <v>156</v>
+      </c>
+      <c r="G151" s="67" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="152" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B152" s="73"/>
+    </row>
+    <row r="153" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B153" s="73"/>
+    </row>
+    <row r="154" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B154" s="73"/>
+    </row>
+    <row r="155" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B155" s="73"/>
+    </row>
+    <row r="156" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B156" s="73"/>
+    </row>
+    <row r="157" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B157" s="73"/>
+    </row>
+    <row r="158" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B158" s="73"/>
+      <c r="E158" s="67">
+        <f>$E$65*1000</f>
+        <v>1037.0058029065888</v>
+      </c>
+      <c r="F158" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="G158" s="67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="159" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B159" s="73"/>
+    </row>
+    <row r="160" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B160" s="73"/>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B161" s="73"/>
+      <c r="E161" s="67">
+        <f>E158*E151</f>
+        <v>159375.89184015195</v>
+      </c>
+      <c r="F161" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="G161" s="67" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B162" s="73"/>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B163" s="73"/>
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B164" s="73"/>
+    </row>
+    <row r="165" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B165" s="73"/>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B166" s="73"/>
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B167" s="73"/>
+    </row>
+    <row r="168" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B168" s="73"/>
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B169" s="73"/>
+      <c r="G169" s="67" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B170" s="73"/>
+      <c r="G170" s="67" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="171" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B171" s="73"/>
+      <c r="G171" s="67" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B172" s="73"/>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B173" s="73"/>
+      <c r="E173" s="67">
+        <v>0</v>
+      </c>
+      <c r="F173" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="G173" s="67" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B174" s="73"/>
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B175" s="73"/>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B176" s="73"/>
+      <c r="E176" s="67">
         <f>9/20</f>
         <v>0.45</v>
       </c>
-      <c r="G151" s="67" t="s">
+      <c r="G176" s="67" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="152" spans="2:7">
-      <c r="B152" s="73"/>
-    </row>
-    <row r="153" spans="2:7">
-      <c r="B153" s="73"/>
-    </row>
-    <row r="154" spans="2:7">
-      <c r="B154" s="73"/>
-    </row>
-    <row r="155" spans="2:7">
-      <c r="B155" s="73"/>
-    </row>
-    <row r="156" spans="2:7">
-      <c r="B156" s="73"/>
-    </row>
-    <row r="157" spans="2:7">
-      <c r="B157" s="73"/>
-    </row>
-    <row r="158" spans="2:7">
-      <c r="B158" s="73"/>
-    </row>
-    <row r="159" spans="2:7">
-      <c r="B159" s="73"/>
-    </row>
-    <row r="160" spans="2:7">
-      <c r="B160" s="73"/>
-    </row>
-    <row r="161" spans="2:19">
-      <c r="B161" s="73"/>
-    </row>
-    <row r="162" spans="2:19">
-      <c r="B162" s="73"/>
-    </row>
-    <row r="163" spans="2:19">
-      <c r="B163" s="73"/>
-    </row>
-    <row r="164" spans="2:19">
-      <c r="B164" s="73"/>
-      <c r="C164" s="71" t="s">
+    <row r="177" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B177" s="73"/>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B178" s="73"/>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B179" s="73"/>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B180" s="73"/>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B181" s="73"/>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B182" s="73"/>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B183" s="73"/>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B184" s="73"/>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B185" s="73"/>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B186" s="73"/>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B187" s="73"/>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B188" s="73"/>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B189" s="73"/>
+      <c r="C189" s="71" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="165" spans="2:19">
-      <c r="B165" s="73"/>
-    </row>
-    <row r="166" spans="2:19">
-      <c r="B166" s="73"/>
-    </row>
-    <row r="167" spans="2:19">
-      <c r="B167" s="73"/>
-    </row>
-    <row r="168" spans="2:19">
-      <c r="B168" s="73"/>
-    </row>
-    <row r="169" spans="2:19">
-      <c r="B169" s="73"/>
-    </row>
-    <row r="170" spans="2:19">
-      <c r="B170" s="73"/>
-      <c r="E170" s="67">
+    <row r="190" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B190" s="73"/>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B191" s="73"/>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B192" s="73"/>
+    </row>
+    <row r="193" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B193" s="73"/>
+    </row>
+    <row r="194" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B194" s="73"/>
+    </row>
+    <row r="195" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B195" s="73"/>
+      <c r="E195" s="67">
         <f>0.04*100</f>
         <v>4</v>
       </c>
-      <c r="F170" s="67" t="s">
+      <c r="F195" s="67" t="s">
         <v>167</v>
       </c>
-      <c r="G170" s="67" t="s">
+      <c r="G195" s="67" t="s">
         <v>165</v>
       </c>
-      <c r="K170" s="67" t="s">
+      <c r="K195" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="L170" s="74" t="s">
+      <c r="L195" s="74" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="171" spans="2:19">
-      <c r="B171" s="73"/>
-      <c r="E171" s="67">
-        <f>E170*E151</f>
+    <row r="196" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B196" s="73"/>
+      <c r="E196" s="67">
+        <f>E195*E176</f>
         <v>1.8</v>
       </c>
-      <c r="F171" s="67" t="s">
+      <c r="F196" s="67" t="s">
         <v>167</v>
       </c>
-      <c r="G171" s="67" t="s">
+      <c r="G196" s="67" t="s">
         <v>166</v>
       </c>
-      <c r="L171" s="74" t="s">
+      <c r="L196" s="74" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="172" spans="2:19">
-      <c r="B172" s="73"/>
-      <c r="L172" s="74" t="s">
+    <row r="197" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B197" s="73"/>
+      <c r="L197" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="R172" s="67" t="s">
+      <c r="R197" s="67" t="s">
         <v>176</v>
       </c>
-      <c r="S172" s="67" t="s">
+      <c r="S197" s="67" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="173" spans="2:19">
-      <c r="B173" s="73"/>
-      <c r="E173" s="67">
-        <f>E136</f>
+    <row r="198" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B198" s="73"/>
+      <c r="E198" s="67">
+        <f>E161</f>
         <v>159375.89184015195</v>
       </c>
-      <c r="F173" s="67" t="s">
+      <c r="F198" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="G173" s="67" t="s">
+      <c r="G198" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="L173" s="74" t="s">
+      <c r="L198" s="74" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="174" spans="2:19">
-      <c r="B174" s="73"/>
-      <c r="E174" s="67">
-        <f>E173*E171/100</f>
+    <row r="199" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B199" s="73"/>
+      <c r="E199" s="67">
+        <f>E198*E196/100</f>
         <v>2868.7660531227348</v>
       </c>
-      <c r="F174" s="67" t="s">
+      <c r="F199" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="G174" s="67" t="s">
+      <c r="G199" s="67" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="175" spans="2:19">
-      <c r="B175" s="73"/>
-    </row>
-    <row r="176" spans="2:19">
-      <c r="B176" s="73"/>
-    </row>
-    <row r="177" spans="2:19">
-      <c r="B177" s="73"/>
-    </row>
-    <row r="178" spans="2:19">
-      <c r="B178" s="73"/>
-    </row>
-    <row r="179" spans="2:19">
-      <c r="B179" s="73"/>
-    </row>
-    <row r="180" spans="2:19">
-      <c r="B180" s="73"/>
-      <c r="E180" s="67">
+    <row r="200" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B200" s="73"/>
+    </row>
+    <row r="201" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B201" s="73"/>
+    </row>
+    <row r="202" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B202" s="73"/>
+    </row>
+    <row r="203" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B203" s="73"/>
+    </row>
+    <row r="204" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B204" s="73"/>
+    </row>
+    <row r="205" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B205" s="73"/>
+      <c r="E205" s="67">
         <v>10</v>
       </c>
-      <c r="F180" s="67" t="s">
+      <c r="F205" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="G180" s="67" t="s">
+      <c r="G205" s="67" t="s">
         <v>178</v>
       </c>
-      <c r="K180" s="67" t="s">
+      <c r="K205" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="L180" s="74" t="s">
+      <c r="L205" s="74" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="181" spans="2:19">
-      <c r="B181" s="73"/>
-      <c r="E181" s="67">
-        <f>E180/100</f>
+    <row r="206" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B206" s="73"/>
+      <c r="E206" s="67">
+        <f>E205/100</f>
         <v>0.1</v>
       </c>
-      <c r="L181" s="74" t="s">
+      <c r="L206" s="74" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="182" spans="2:19">
-      <c r="B182" s="73"/>
-      <c r="L182" s="74" t="s">
+    <row r="207" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B207" s="73"/>
+      <c r="L207" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="R182" s="67" t="s">
+      <c r="R207" s="67" t="s">
         <v>176</v>
       </c>
-      <c r="S182" s="67" t="s">
+      <c r="S207" s="67" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="183" spans="2:19">
-      <c r="B183" s="73"/>
-      <c r="E183" s="74">
-        <f>E136</f>
+    <row r="208" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B208" s="73"/>
+      <c r="E208" s="74">
+        <f>E161</f>
         <v>159375.89184015195</v>
       </c>
-      <c r="F183" s="74"/>
-      <c r="G183" s="74" t="s">
+      <c r="F208" s="74"/>
+      <c r="G208" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="H183" s="74"/>
-      <c r="L183" s="74" t="s">
+      <c r="H208" s="74"/>
+      <c r="L208" s="74" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="184" spans="2:19">
-      <c r="B184" s="73"/>
-      <c r="E184" s="67">
-        <f>E181*E183</f>
+    <row r="209" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B209" s="73"/>
+      <c r="E209" s="67">
+        <f>E206*E208</f>
         <v>15937.589184015196</v>
       </c>
-      <c r="G184" s="67" t="s">
+      <c r="G209" s="67" t="s">
         <v>115</v>
       </c>
-      <c r="H184" s="74"/>
-    </row>
-    <row r="185" spans="2:19">
-      <c r="B185" s="73"/>
-      <c r="E185" s="74"/>
-      <c r="F185" s="74"/>
-      <c r="G185" s="74"/>
-      <c r="H185" s="74"/>
-    </row>
-    <row r="186" spans="2:19">
-      <c r="B186" s="73"/>
-    </row>
-    <row r="187" spans="2:19">
-      <c r="B187" s="73"/>
-    </row>
-    <row r="188" spans="2:19">
-      <c r="B188" s="73"/>
-      <c r="D188" s="74"/>
-    </row>
-    <row r="189" spans="2:19">
-      <c r="B189" s="73"/>
-      <c r="D189" s="74"/>
-    </row>
-    <row r="190" spans="2:19">
-      <c r="B190" s="73"/>
-      <c r="D190" s="74"/>
-      <c r="E190" s="67">
+      <c r="H209" s="74"/>
+    </row>
+    <row r="210" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B210" s="73"/>
+      <c r="E210" s="74"/>
+      <c r="F210" s="74"/>
+      <c r="G210" s="74"/>
+      <c r="H210" s="74"/>
+    </row>
+    <row r="211" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B211" s="73"/>
+    </row>
+    <row r="212" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B212" s="73"/>
+    </row>
+    <row r="213" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B213" s="73"/>
+      <c r="D213" s="74"/>
+    </row>
+    <row r="214" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B214" s="73"/>
+      <c r="D214" s="74"/>
+    </row>
+    <row r="215" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B215" s="73"/>
+      <c r="D215" s="74"/>
+      <c r="E215" s="67">
         <f>18*365</f>
         <v>6570</v>
       </c>
-      <c r="F190" s="67" t="s">
+      <c r="F215" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="G190" s="67" t="s">
+      <c r="G215" s="67" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="191" spans="2:19">
-      <c r="B191" s="73"/>
-      <c r="D191" s="74"/>
-      <c r="E191" s="74"/>
-      <c r="F191" s="74"/>
-      <c r="K191" s="74"/>
-    </row>
-    <row r="192" spans="2:19">
-      <c r="B192" s="73"/>
-    </row>
-    <row r="193" spans="2:2">
-      <c r="B193" s="73"/>
-    </row>
-    <row r="194" spans="2:2">
-      <c r="B194" s="73"/>
-    </row>
-    <row r="195" spans="2:2">
-      <c r="B195" s="73"/>
-    </row>
-    <row r="196" spans="2:2">
-      <c r="B196" s="73"/>
-    </row>
-    <row r="197" spans="2:2">
-      <c r="B197" s="73"/>
-    </row>
-    <row r="198" spans="2:2">
-      <c r="B198" s="73"/>
-    </row>
-    <row r="199" spans="2:2">
-      <c r="B199" s="73"/>
-    </row>
-    <row r="200" spans="2:2">
-      <c r="B200" s="73"/>
-    </row>
-    <row r="201" spans="2:2">
-      <c r="B201" s="73"/>
-    </row>
-    <row r="202" spans="2:2">
-      <c r="B202" s="73"/>
-    </row>
-    <row r="203" spans="2:2">
-      <c r="B203" s="73"/>
-    </row>
-    <row r="204" spans="2:2">
-      <c r="B204" s="73"/>
-    </row>
-    <row r="205" spans="2:2">
-      <c r="B205" s="73"/>
-    </row>
-    <row r="206" spans="2:2">
-      <c r="B206" s="73"/>
-    </row>
-    <row r="207" spans="2:2">
-      <c r="B207" s="73"/>
-    </row>
-    <row r="208" spans="2:2">
-      <c r="B208" s="73"/>
-    </row>
-    <row r="209" spans="2:2">
-      <c r="B209" s="73"/>
-    </row>
-    <row r="210" spans="2:2">
-      <c r="B210" s="73"/>
-    </row>
-    <row r="211" spans="2:2">
-      <c r="B211" s="73"/>
-    </row>
-    <row r="212" spans="2:2">
-      <c r="B212" s="73"/>
-    </row>
-    <row r="213" spans="2:2">
-      <c r="B213" s="73"/>
-    </row>
-    <row r="214" spans="2:2">
-      <c r="B214" s="73"/>
-    </row>
-    <row r="215" spans="2:2">
-      <c r="B215" s="73"/>
-    </row>
-    <row r="216" spans="2:2">
+    <row r="216" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B216" s="73"/>
-    </row>
-    <row r="217" spans="2:2">
+      <c r="D216" s="74"/>
+      <c r="E216" s="74"/>
+      <c r="F216" s="74"/>
+      <c r="K216" s="74"/>
+    </row>
+    <row r="217" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B217" s="73"/>
     </row>
-    <row r="218" spans="2:2">
+    <row r="218" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B218" s="73"/>
     </row>
-    <row r="219" spans="2:2">
+    <row r="219" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B219" s="73"/>
     </row>
-    <row r="220" spans="2:2">
+    <row r="220" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B220" s="73"/>
     </row>
-    <row r="221" spans="2:2">
+    <row r="221" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B221" s="73"/>
     </row>
-    <row r="222" spans="2:2">
+    <row r="222" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B222" s="73"/>
-    </row>
-    <row r="223" spans="2:2">
+      <c r="C222" s="67" t="s">
+        <v>200</v>
+      </c>
+      <c r="E222" s="67">
+        <v>1.05</v>
+      </c>
+      <c r="F222" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="G222" s="67" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="223" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B223" s="73"/>
-    </row>
-    <row r="224" spans="2:2">
+      <c r="E223" s="67">
+        <v>1.36</v>
+      </c>
+      <c r="F223" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="G223" s="67" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="224" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B224" s="73"/>
-    </row>
-    <row r="225" spans="2:2">
+      <c r="E224" s="67">
+        <v>1.02</v>
+      </c>
+      <c r="F224" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="G224" s="67" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="225" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B225" s="73"/>
     </row>
-    <row r="226" spans="2:2">
+    <row r="226" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B226" s="73"/>
-    </row>
-    <row r="227" spans="2:2">
+      <c r="G226" s="67" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="227" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B227" s="73"/>
     </row>
-    <row r="228" spans="2:2">
+    <row r="228" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B228" s="73"/>
-    </row>
-    <row r="229" spans="2:2">
+      <c r="E228" s="186">
+        <f>E222/F228</f>
+        <v>2.0192307692307692</v>
+      </c>
+      <c r="F228" s="187">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="229" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B229" s="73"/>
-    </row>
-    <row r="230" spans="2:2">
+      <c r="E229" s="186">
+        <f>E223/F229</f>
+        <v>2.7755102040816331</v>
+      </c>
+      <c r="F229" s="187">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="230" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B230" s="73"/>
     </row>
-    <row r="231" spans="2:2">
+    <row r="231" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B231" s="73"/>
     </row>
-    <row r="232" spans="2:2">
+    <row r="232" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B232" s="73"/>
     </row>
-    <row r="233" spans="2:2">
+    <row r="233" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B233" s="73"/>
     </row>
-    <row r="234" spans="2:2">
+    <row r="234" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B234" s="73"/>
     </row>
-    <row r="235" spans="2:2">
+    <row r="235" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B235" s="73"/>
     </row>
-    <row r="236" spans="2:2">
+    <row r="236" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B236" s="73"/>
     </row>
-    <row r="237" spans="2:2">
+    <row r="237" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B237" s="73"/>
     </row>
-    <row r="238" spans="2:2">
+    <row r="238" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B238" s="73"/>
     </row>
-    <row r="239" spans="2:2">
+    <row r="239" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B239" s="73"/>
     </row>
-    <row r="240" spans="2:2">
+    <row r="240" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B240" s="73"/>
     </row>
-    <row r="241" spans="2:2">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B241" s="73"/>
     </row>
-    <row r="242" spans="2:2">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B242" s="73"/>
     </row>
-    <row r="243" spans="2:2">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B243" s="73"/>
     </row>
-    <row r="244" spans="2:2">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B244" s="73"/>
     </row>
-    <row r="245" spans="2:2">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B245" s="73"/>
     </row>
-    <row r="246" spans="2:2">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B246" s="73"/>
     </row>
-    <row r="247" spans="2:2">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B247" s="73"/>
     </row>
-    <row r="248" spans="2:2">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B248" s="73"/>
     </row>
-    <row r="249" spans="2:2">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B249" s="73"/>
     </row>
-    <row r="250" spans="2:2">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B250" s="73"/>
     </row>
-    <row r="251" spans="2:2">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B251" s="73"/>
     </row>
-    <row r="252" spans="2:2">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B252" s="73"/>
     </row>
-    <row r="253" spans="2:2">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B253" s="73"/>
     </row>
-    <row r="254" spans="2:2">
+    <row r="254" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B254" s="73"/>
     </row>
-    <row r="255" spans="2:2">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B255" s="73"/>
     </row>
-    <row r="256" spans="2:2">
+    <row r="256" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B256" s="73"/>
     </row>
-    <row r="257" spans="2:2">
+    <row r="257" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B257" s="73"/>
     </row>
-    <row r="258" spans="2:2">
+    <row r="258" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B258" s="73"/>
     </row>
-    <row r="259" spans="2:2">
+    <row r="259" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B259" s="73"/>
     </row>
-    <row r="260" spans="2:2">
+    <row r="260" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B260" s="73"/>
     </row>
-    <row r="261" spans="2:2">
+    <row r="261" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B261" s="73"/>
     </row>
-    <row r="262" spans="2:2">
+    <row r="262" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B262" s="73"/>
     </row>
-    <row r="263" spans="2:2">
+    <row r="263" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B263" s="73"/>
     </row>
-    <row r="264" spans="2:2">
+    <row r="264" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B264" s="73"/>
     </row>
-    <row r="265" spans="2:2">
+    <row r="265" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B265" s="73"/>
     </row>
-    <row r="266" spans="2:2">
+    <row r="266" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B266" s="73"/>
     </row>
-    <row r="267" spans="2:2">
+    <row r="267" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B267" s="73"/>
     </row>
-    <row r="268" spans="2:2">
+    <row r="268" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B268" s="73"/>
     </row>
-    <row r="269" spans="2:2">
+    <row r="269" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B269" s="73"/>
     </row>
-    <row r="270" spans="2:2">
+    <row r="270" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B270" s="73"/>
     </row>
-    <row r="271" spans="2:2">
+    <row r="271" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B271" s="73"/>
     </row>
-    <row r="272" spans="2:2">
+    <row r="272" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B272" s="73"/>
     </row>
-    <row r="273" spans="2:2">
+    <row r="273" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B273" s="73"/>
     </row>
-    <row r="274" spans="2:2">
+    <row r="274" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B274" s="73"/>
     </row>
-    <row r="275" spans="2:2">
+    <row r="275" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B275" s="73"/>
     </row>
-    <row r="276" spans="2:2">
+    <row r="276" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B276" s="73"/>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B277" s="73"/>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B278" s="73"/>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B279" s="73"/>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B280" s="73"/>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B281" s="73"/>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B282" s="73"/>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B283" s="73"/>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B284" s="73"/>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B285" s="73"/>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B286" s="73"/>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B287" s="73"/>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B288" s="73"/>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B289" s="73"/>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B290" s="73"/>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B291" s="73"/>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B292" s="73"/>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B293" s="73"/>
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B294" s="73"/>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B295" s="73"/>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B296" s="73"/>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B297" s="73"/>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B298" s="73"/>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B299" s="73"/>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B300" s="73"/>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B301" s="73"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/energy/energy_compressor_hydrogen.converter.xlsx
+++ b/nodes_source_analyses/energy/energy_compressor_hydrogen.converter.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="-23540" windowWidth="19200" windowHeight="23540" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="8740" yWindow="460" windowWidth="19200" windowHeight="17540" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -199,9 +199,6 @@
     <t>Technical</t>
   </si>
   <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -828,6 +825,10 @@
   <si>
     <t>Part of total hydrogen required for transport</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -841,7 +842,7 @@
     <numFmt numFmtId="168" formatCode="0.00000000"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1050,11 +1051,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1687,330 +1683,330 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -2108,20 +2104,20 @@
     <xf numFmtId="49" fontId="16" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2141,12 +2137,12 @@
     <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2227,9 +2223,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2251,70 +2247,70 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="34" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="33" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="31" fillId="2" borderId="0" xfId="597" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="30" fillId="2" borderId="0" xfId="597" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="600">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2928,83 +2924,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>419100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>139700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -4012,10 +3932,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="31" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="22" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="22"/>
+    <col min="1" max="1" width="3.28515625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="22" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -4041,7 +3961,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -4050,7 +3970,7 @@
         <v>42</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -4183,65 +4103,65 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="35" customWidth="1"/>
     <col min="3" max="3" width="36" style="35" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="35" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" style="35" customWidth="1"/>
     <col min="7" max="7" width="34" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="35" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="35" customWidth="1"/>
-    <col min="10" max="10" width="5.33203125" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="35"/>
+    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="192" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="194"/>
+      <c r="B2" s="193" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="195"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="195"/>
-      <c r="C3" s="196"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="197"/>
+      <c r="B3" s="196"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="198"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="195"/>
-      <c r="C4" s="196"/>
-      <c r="D4" s="196"/>
-      <c r="E4" s="197"/>
+      <c r="B4" s="196"/>
+      <c r="C4" s="197"/>
+      <c r="D4" s="197"/>
+      <c r="E4" s="198"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="198"/>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="200"/>
+    <row r="5" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="199"/>
+      <c r="C5" s="200"/>
+      <c r="D5" s="200"/>
+      <c r="E5" s="201"/>
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
     </row>
@@ -4314,10 +4234,10 @@
     <row r="12" spans="1:12" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="25"/>
       <c r="C12" s="159" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="21"/>
-      <c r="E12" s="201">
+      <c r="E12" s="192">
         <f>'Research data'!H7</f>
         <v>7.487290093976276E-2</v>
       </c>
@@ -4325,7 +4245,7 @@
       <c r="G12" s="109"/>
       <c r="H12" s="32"/>
       <c r="I12" s="157" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J12" s="14"/>
       <c r="L12" s="35"/>
@@ -4333,10 +4253,10 @@
     <row r="13" spans="1:12" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="25"/>
       <c r="C13" s="159" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D13" s="21"/>
-      <c r="E13" s="201">
+      <c r="E13" s="192">
         <f>'Research data'!H8</f>
         <v>0.91781024577601056</v>
       </c>
@@ -4344,7 +4264,7 @@
       <c r="G13" s="109"/>
       <c r="H13" s="32"/>
       <c r="I13" s="157" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J13" s="14"/>
       <c r="L13" s="35"/>
@@ -4353,7 +4273,7 @@
       <c r="A14" s="26"/>
       <c r="B14" s="25"/>
       <c r="C14" s="109" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>2</v>
@@ -4364,11 +4284,11 @@
       </c>
       <c r="F14" s="39"/>
       <c r="G14" s="109" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H14" s="32"/>
       <c r="I14" s="157" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J14" s="14"/>
       <c r="K14" s="26"/>
@@ -4377,22 +4297,22 @@
       <c r="A15" s="112"/>
       <c r="B15" s="113"/>
       <c r="C15" s="183" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="201">
+        <v>64</v>
+      </c>
+      <c r="E15" s="192">
         <f>'Research data'!H10</f>
         <v>1.1209333333333333</v>
       </c>
       <c r="F15" s="109"/>
       <c r="G15" s="183" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H15" s="109"/>
       <c r="I15" s="157" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J15" s="115"/>
       <c r="K15" s="26"/>
@@ -4401,7 +4321,7 @@
       <c r="A16" s="112"/>
       <c r="B16" s="113"/>
       <c r="C16" s="109" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>2</v>
@@ -4419,7 +4339,7 @@
     <row r="17" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="113"/>
       <c r="C17" s="109" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>2</v>
@@ -4432,7 +4352,7 @@
       <c r="G17" s="109"/>
       <c r="H17" s="109"/>
       <c r="I17" s="157" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J17" s="115"/>
       <c r="K17" s="36"/>
@@ -4440,7 +4360,7 @@
     <row r="18" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="113"/>
       <c r="C18" s="146" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="106">
@@ -4449,11 +4369,11 @@
       </c>
       <c r="F18" s="109"/>
       <c r="G18" s="146" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H18" s="109"/>
       <c r="I18" s="157" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J18" s="115"/>
     </row>
@@ -4498,7 +4418,7 @@
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="157" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J21" s="94"/>
     </row>
@@ -4508,7 +4428,7 @@
         <v>23</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E22" s="41">
         <f>'Research data'!H21</f>
@@ -4520,17 +4440,17 @@
       </c>
       <c r="H22" s="39"/>
       <c r="I22" s="157" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J22" s="94"/>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="136"/>
       <c r="C23" s="184" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D23" s="138" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E23" s="106">
         <f>'Research data'!H24</f>
@@ -4538,11 +4458,11 @@
       </c>
       <c r="F23" s="139"/>
       <c r="G23" s="137" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H23" s="139"/>
       <c r="I23" s="157" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J23" s="140"/>
     </row>
@@ -4550,7 +4470,7 @@
       <c r="A24" s="141"/>
       <c r="B24" s="143"/>
       <c r="C24" s="144" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D24" s="138"/>
       <c r="E24" s="106">
@@ -4559,7 +4479,7 @@
       </c>
       <c r="F24" s="144"/>
       <c r="G24" s="144" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H24" s="144"/>
       <c r="I24" s="158" t="s">
@@ -4571,7 +4491,7 @@
       <c r="A25" s="141"/>
       <c r="B25" s="143"/>
       <c r="C25" s="144" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D25" s="138"/>
       <c r="E25" s="106">
@@ -4580,11 +4500,11 @@
       </c>
       <c r="F25" s="144"/>
       <c r="G25" s="144" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H25" s="144"/>
       <c r="I25" s="158" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J25" s="145"/>
       <c r="K25" s="141"/>
@@ -4593,7 +4513,7 @@
       <c r="A26" s="141"/>
       <c r="B26" s="143"/>
       <c r="C26" s="184" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D26" s="138"/>
       <c r="E26" s="106">
@@ -4602,11 +4522,11 @@
       </c>
       <c r="F26" s="144"/>
       <c r="G26" s="144" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H26" s="144"/>
       <c r="I26" s="163" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J26" s="145"/>
       <c r="K26" s="141"/>
@@ -4615,7 +4535,7 @@
       <c r="A27" s="141"/>
       <c r="B27" s="143"/>
       <c r="C27" s="144" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D27" s="138"/>
       <c r="E27" s="106">
@@ -4624,7 +4544,7 @@
       </c>
       <c r="F27" s="144"/>
       <c r="G27" s="142" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H27" s="144"/>
       <c r="I27" s="158" t="s">
@@ -4637,21 +4557,21 @@
       <c r="A28" s="112"/>
       <c r="B28" s="113"/>
       <c r="C28" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="23" t="s">
         <v>75</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>76</v>
       </c>
       <c r="E28" s="116">
         <v>0.1</v>
       </c>
       <c r="F28" s="109"/>
       <c r="G28" s="109" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H28" s="109"/>
       <c r="I28" s="157" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J28" s="115"/>
       <c r="K28" s="141"/>
@@ -4660,10 +4580,10 @@
       <c r="A29" s="112"/>
       <c r="B29" s="113"/>
       <c r="C29" s="109" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="23" t="s">
         <v>78</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>79</v>
       </c>
       <c r="E29" s="116">
         <v>0</v>
@@ -4716,11 +4636,11 @@
       </c>
       <c r="F32" s="109"/>
       <c r="G32" s="109" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H32" s="109"/>
       <c r="I32" s="111" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J32" s="115"/>
     </row>
@@ -4728,7 +4648,7 @@
       <c r="A33" s="112"/>
       <c r="B33" s="113"/>
       <c r="C33" s="109" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D33" s="23" t="s">
         <v>1</v>
@@ -4739,7 +4659,7 @@
       </c>
       <c r="F33" s="109"/>
       <c r="G33" s="109" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H33" s="109"/>
       <c r="I33" s="111"/>
@@ -4749,10 +4669,10 @@
       <c r="A34" s="112"/>
       <c r="B34" s="113"/>
       <c r="C34" s="109" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="23" t="s">
         <v>80</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>81</v>
       </c>
       <c r="E34" s="135">
         <f>'Research data'!H34</f>
@@ -4760,11 +4680,11 @@
       </c>
       <c r="F34" s="109"/>
       <c r="G34" s="109" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H34" s="109"/>
       <c r="I34" s="157" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J34" s="115"/>
     </row>
@@ -4906,38 +4826,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>419100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>139700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>63500</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
 </worksheet>
 </file>
 
@@ -4954,29 +4842,29 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="42" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="42" customWidth="1"/>
     <col min="2" max="2" width="3" style="42" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" style="42" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="42" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="42" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" style="42" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="42" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="42" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="42" customWidth="1"/>
     <col min="7" max="7" width="3" style="42" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" style="42" customWidth="1"/>
-    <col min="9" max="9" width="2.6640625" style="42" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="42" customWidth="1"/>
-    <col min="11" max="11" width="2.5" style="42" customWidth="1"/>
-    <col min="12" max="12" width="15.83203125" style="42" customWidth="1"/>
-    <col min="13" max="13" width="2.33203125" style="42" customWidth="1"/>
-    <col min="14" max="14" width="14.83203125" style="42" customWidth="1"/>
-    <col min="15" max="15" width="2.1640625" style="42" customWidth="1"/>
-    <col min="16" max="16" width="11.83203125" style="42" customWidth="1"/>
-    <col min="17" max="18" width="2.1640625" style="42" customWidth="1"/>
-    <col min="19" max="19" width="9.1640625" style="42" customWidth="1"/>
-    <col min="20" max="20" width="23.33203125" style="42" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="42" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" style="42" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="42" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" style="42" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="42" customWidth="1"/>
+    <col min="13" max="13" width="2.28515625" style="42" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="42" customWidth="1"/>
+    <col min="15" max="15" width="2.140625" style="42" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" style="42" customWidth="1"/>
+    <col min="17" max="18" width="2.140625" style="42" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="42" customWidth="1"/>
+    <col min="20" max="20" width="23.28515625" style="42" customWidth="1"/>
     <col min="21" max="21" width="11" style="42" customWidth="1"/>
-    <col min="22" max="22" width="2.5" style="42" customWidth="1"/>
-    <col min="23" max="23" width="22.33203125" style="42" customWidth="1"/>
-    <col min="24" max="16384" width="10.83203125" style="42"/>
+    <col min="22" max="22" width="2.42578125" style="42" customWidth="1"/>
+    <col min="23" max="23" width="22.28515625" style="42" customWidth="1"/>
+    <col min="24" max="16384" width="10.7109375" style="42"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -5016,29 +4904,29 @@
       </c>
       <c r="G4" s="91"/>
       <c r="H4" s="91" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I4" s="91"/>
       <c r="J4" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K4" s="91"/>
       <c r="L4" s="91" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M4" s="91"/>
       <c r="N4" s="91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O4" s="91"/>
       <c r="P4" s="91" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q4" s="91"/>
       <c r="R4" s="91"/>
       <c r="S4" s="91"/>
       <c r="T4" s="91" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5083,7 +4971,7 @@
     <row r="7" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="45"/>
       <c r="C7" s="110" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
@@ -5110,13 +4998,13 @@
       <c r="R7" s="46"/>
       <c r="S7" s="46"/>
       <c r="T7" s="153" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="45"/>
       <c r="C8" s="154" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D8" s="52"/>
       <c r="E8" s="52"/>
@@ -5143,13 +5031,13 @@
       <c r="R8" s="46"/>
       <c r="S8" s="46"/>
       <c r="T8" s="153" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="45"/>
       <c r="C9" s="110" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="52"/>
       <c r="E9" s="52"/>
@@ -5178,18 +5066,18 @@
       <c r="R9" s="46"/>
       <c r="S9" s="46"/>
       <c r="T9" s="153" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="45"/>
       <c r="C10" s="182" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D10" s="52"/>
       <c r="E10" s="52"/>
       <c r="F10" s="124" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" s="92"/>
       <c r="H10" s="105">
@@ -5209,14 +5097,14 @@
       <c r="R10" s="46"/>
       <c r="S10" s="46"/>
       <c r="T10" s="153" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="112"/>
       <c r="B11" s="113"/>
       <c r="C11" s="109" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="52"/>
       <c r="E11" s="52"/>
@@ -5239,7 +5127,7 @@
       <c r="R11" s="112"/>
       <c r="S11" s="112"/>
       <c r="T11" s="148" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="U11" s="112"/>
     </row>
@@ -5247,10 +5135,10 @@
       <c r="A12" s="112"/>
       <c r="B12" s="113"/>
       <c r="C12" s="109" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="109" t="s">
         <v>95</v>
-      </c>
-      <c r="F12" s="109" t="s">
-        <v>96</v>
       </c>
       <c r="H12" s="130">
         <f>Notes!E215</f>
@@ -5263,14 +5151,14 @@
       <c r="M12" s="118"/>
       <c r="N12" s="112"/>
       <c r="T12" s="148" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="112"/>
       <c r="B13" s="113"/>
       <c r="C13" s="109" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -5299,7 +5187,7 @@
       <c r="A14" s="112"/>
       <c r="B14" s="113"/>
       <c r="C14" s="109" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
@@ -5327,7 +5215,7 @@
       <c r="A15" s="112"/>
       <c r="B15" s="113"/>
       <c r="C15" s="109" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="34"/>
@@ -5355,7 +5243,7 @@
       <c r="A16" s="112"/>
       <c r="B16" s="113"/>
       <c r="C16" s="109" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D16" s="110"/>
       <c r="E16" s="110"/>
@@ -5433,7 +5321,7 @@
       <c r="A20" s="112"/>
       <c r="B20" s="113"/>
       <c r="C20" s="129" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D20" s="123"/>
       <c r="E20" s="123"/>
@@ -5455,17 +5343,17 @@
       </c>
       <c r="S20" s="49"/>
       <c r="T20" s="153" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="112"/>
       <c r="B21" s="113"/>
       <c r="C21" s="129" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F21" s="131" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H21" s="125">
         <f>P21</f>
@@ -5479,14 +5367,14 @@
         <v>2868.7660531227348</v>
       </c>
       <c r="T21" s="153" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="112"/>
       <c r="B22" s="113"/>
       <c r="C22" s="129" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F22" s="131" t="s">
         <v>20</v>
@@ -5499,17 +5387,17 @@
       <c r="M22" s="126"/>
       <c r="N22" s="126"/>
       <c r="T22" s="153" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="112"/>
       <c r="B23" s="113"/>
       <c r="C23" s="129" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F23" s="124" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H23" s="160">
         <v>0</v>
@@ -5519,7 +5407,7 @@
       <c r="M23" s="118"/>
       <c r="N23" s="126"/>
       <c r="T23" s="153" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W23" s="149"/>
     </row>
@@ -5527,10 +5415,10 @@
       <c r="A24" s="112"/>
       <c r="B24" s="113"/>
       <c r="C24" s="129" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F24" s="124" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H24" s="160">
         <v>0</v>
@@ -5540,14 +5428,14 @@
       <c r="M24" s="118"/>
       <c r="N24" s="126"/>
       <c r="T24" s="153" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="112"/>
       <c r="B25" s="113"/>
       <c r="C25" s="142" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F25" s="142" t="s">
         <v>20</v>
@@ -5562,14 +5450,14 @@
       <c r="M25" s="118"/>
       <c r="N25" s="118"/>
       <c r="T25" s="153" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="112"/>
       <c r="B26" s="113"/>
       <c r="C26" s="142" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F26" s="142" t="s">
         <v>20</v>
@@ -5585,14 +5473,14 @@
       <c r="M26" s="118"/>
       <c r="N26" s="118"/>
       <c r="T26" s="153" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="112"/>
       <c r="B27" s="113"/>
       <c r="C27" s="142" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F27" s="142" t="s">
         <v>20</v>
@@ -5617,10 +5505,10 @@
       <c r="A28" s="112"/>
       <c r="B28" s="113"/>
       <c r="C28" s="144" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F28" s="142" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H28" s="130">
         <v>0</v>
@@ -5632,17 +5520,17 @@
       <c r="M28" s="118"/>
       <c r="N28" s="118"/>
       <c r="T28" s="153" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="112"/>
       <c r="B29" s="113"/>
       <c r="C29" s="142" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F29" s="142" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H29" s="130">
         <v>0</v>
@@ -5654,7 +5542,7 @@
       <c r="M29" s="118"/>
       <c r="N29" s="118"/>
       <c r="T29" s="153" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
@@ -5710,14 +5598,14 @@
       <c r="R32" s="46"/>
       <c r="S32" s="46"/>
       <c r="T32" s="153" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="112"/>
       <c r="B33" s="113"/>
       <c r="C33" s="110" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F33" s="124" t="s">
         <v>1</v>
@@ -5737,17 +5625,17 @@
       <c r="R33" s="46"/>
       <c r="S33" s="46"/>
       <c r="T33" s="165" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="112"/>
       <c r="B34" s="113"/>
       <c r="C34" s="123" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F34" s="124" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="152">
         <f>L34</f>
@@ -5784,65 +5672,65 @@
       <c r="A36" s="112"/>
       <c r="B36" s="113"/>
       <c r="C36" s="109" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H36" s="116">
         <v>0</v>
       </c>
       <c r="T36" s="156" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="112"/>
       <c r="B37" s="113"/>
       <c r="C37" s="109" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H37" s="116">
         <v>0</v>
       </c>
       <c r="T37" s="156" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="112"/>
       <c r="B38" s="113"/>
       <c r="C38" s="109" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H38" s="116">
         <v>0</v>
       </c>
       <c r="T38" s="156" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="112"/>
       <c r="B39" s="113"/>
       <c r="C39" s="109" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H39" s="116">
         <v>0</v>
       </c>
       <c r="T39" s="156" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="112"/>
       <c r="B40" s="113"/>
       <c r="C40" s="109" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H40" s="116">
         <v>0</v>
       </c>
       <c r="T40" s="156" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
@@ -5872,18 +5760,18 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="59" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" style="59" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="59" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="59" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="59" customWidth="1"/>
-    <col min="6" max="7" width="13.1640625" style="59" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="63" customWidth="1"/>
-    <col min="9" max="9" width="31.5" style="63" customWidth="1"/>
-    <col min="10" max="10" width="98.33203125" style="59" customWidth="1"/>
-    <col min="11" max="16384" width="33.1640625" style="59"/>
+    <col min="1" max="1" width="3.42578125" style="59" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="59" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="59" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="59" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="59" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" style="59" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="63" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" style="63" customWidth="1"/>
+    <col min="10" max="10" width="98.28515625" style="59" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="59"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -5937,13 +5825,13 @@
         <v>17</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>9</v>
@@ -5963,13 +5851,13 @@
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="62"/>
       <c r="C7" s="147" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="151" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E7" s="151" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F7" s="58">
         <v>2015</v>
@@ -5981,10 +5869,10 @@
         <v>42353</v>
       </c>
       <c r="I7" s="58" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J7" s="59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
@@ -5993,13 +5881,13 @@
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="62"/>
       <c r="C9" s="149" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D9" s="151" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E9" s="151" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="58">
         <v>2009</v>
@@ -6011,22 +5899,22 @@
         <v>42352</v>
       </c>
       <c r="I9" s="100" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J9" s="99" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="62"/>
       <c r="C10" s="149" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="62"/>
       <c r="C11" s="132" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" s="151"/>
       <c r="E11" s="151"/>
@@ -6038,7 +5926,7 @@
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="62"/>
       <c r="C12" s="141" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="151"/>
       <c r="E12" s="151"/>
@@ -6053,13 +5941,13 @@
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="62"/>
       <c r="C14" s="132" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D14" s="149" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E14" s="149" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="59">
         <v>2009</v>
@@ -6071,16 +5959,16 @@
         <v>42360</v>
       </c>
       <c r="I14" s="63" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J14" s="149" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="62"/>
       <c r="C15" s="133" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" s="107"/>
       <c r="F15" s="58"/>
@@ -6100,13 +5988,13 @@
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="62"/>
       <c r="C17" s="149" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D17" s="149" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E17" s="149" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F17" s="59">
         <v>2015</v>
@@ -6118,16 +6006,16 @@
         <v>42360</v>
       </c>
       <c r="I17" s="117" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J17" s="98" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="62"/>
       <c r="C18" s="149" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
@@ -6136,13 +6024,13 @@
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="62"/>
       <c r="C20" s="161" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D20" s="149" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E20" s="151" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F20" s="58">
         <v>2015</v>
@@ -6154,47 +6042,47 @@
         <v>42352</v>
       </c>
       <c r="I20" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="J20" s="151" t="s">
         <v>191</v>
-      </c>
-      <c r="J20" s="151" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="62"/>
       <c r="D21" s="190" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E21" s="190" t="s">
+        <v>217</v>
+      </c>
+      <c r="F21" s="190" t="s">
         <v>218</v>
-      </c>
-      <c r="F21" s="190" t="s">
-        <v>219</v>
       </c>
       <c r="H21" s="191">
         <v>42870</v>
       </c>
       <c r="I21" s="189" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J21" s="58"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="62"/>
       <c r="D22" s="190" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E22" s="190" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F22" s="190" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H22" s="191">
         <v>42870</v>
       </c>
       <c r="I22" s="74" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J22" s="58"/>
     </row>
@@ -6257,7 +6145,7 @@
       <c r="B34" s="62"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -6276,19 +6164,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="67" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="67" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="67" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="67" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="67" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="67" customWidth="1"/>
     <col min="4" max="4" width="4" style="67" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" style="67" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="67" customWidth="1"/>
-    <col min="7" max="13" width="10.83203125" style="67"/>
-    <col min="14" max="14" width="7.1640625" style="67" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" style="67"/>
-    <col min="16" max="16" width="16.5" style="67" customWidth="1"/>
-    <col min="17" max="17" width="10.83203125" style="67"/>
-    <col min="18" max="18" width="55.33203125" style="67" customWidth="1"/>
-    <col min="19" max="16384" width="10.83203125" style="67"/>
+    <col min="5" max="5" width="27.28515625" style="67" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="67" customWidth="1"/>
+    <col min="7" max="13" width="10.7109375" style="67"/>
+    <col min="14" max="14" width="7.140625" style="67" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="67"/>
+    <col min="16" max="16" width="16.42578125" style="67" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" style="67"/>
+    <col min="18" max="18" width="55.28515625" style="67" customWidth="1"/>
+    <col min="19" max="16384" width="10.7109375" style="67"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -6314,7 +6202,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="75" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" s="75" t="s">
         <v>26</v>
@@ -6391,10 +6279,10 @@
         <v>120.1</v>
       </c>
       <c r="I8" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="J8" s="67" t="s">
         <v>128</v>
-      </c>
-      <c r="J8" s="67" t="s">
-        <v>129</v>
       </c>
       <c r="L8" s="74"/>
       <c r="M8" s="74"/>
@@ -6426,7 +6314,7 @@
       <c r="G10" s="74"/>
       <c r="L10" s="170"/>
       <c r="M10" s="171" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N10" s="171" t="s">
         <v>8</v>
@@ -6438,7 +6326,7 @@
         <v>7</v>
       </c>
       <c r="Q10" s="171" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R10" s="171" t="s">
         <v>0</v>
@@ -6477,30 +6365,30 @@
         <v>1.0980000000000001</v>
       </c>
       <c r="I12" s="67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J12" s="67" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K12" s="74"/>
       <c r="L12" s="173"/>
       <c r="M12" s="148" t="s">
+        <v>55</v>
+      </c>
+      <c r="N12" s="148" t="s">
         <v>56</v>
-      </c>
-      <c r="N12" s="148" t="s">
-        <v>57</v>
       </c>
       <c r="O12" s="176">
         <v>1.0980000000000001</v>
       </c>
       <c r="P12" s="148" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q12" s="177">
         <v>42221</v>
       </c>
       <c r="R12" s="163" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S12" s="175"/>
     </row>
@@ -6527,11 +6415,11 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B14" s="73"/>
       <c r="C14" s="74" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D14" s="74"/>
       <c r="E14" s="74" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F14" s="74"/>
       <c r="G14" s="74"/>
@@ -6612,7 +6500,7 @@
       <c r="C18" s="74"/>
       <c r="D18" s="74"/>
       <c r="E18" s="74" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F18" s="74"/>
       <c r="G18" s="74"/>
@@ -6634,7 +6522,7 @@
       <c r="C19" s="74"/>
       <c r="D19" s="74"/>
       <c r="E19" s="74" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F19" s="74"/>
       <c r="G19" s="74"/>
@@ -6898,11 +6786,11 @@
     <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="73"/>
       <c r="C33" s="74" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D33" s="74"/>
       <c r="E33" s="74" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F33" s="74"/>
       <c r="G33" s="74"/>
@@ -6936,7 +6824,7 @@
       <c r="C35" s="74"/>
       <c r="D35" s="74"/>
       <c r="E35" s="74" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F35" s="74"/>
       <c r="G35" s="74"/>
@@ -6954,7 +6842,7 @@
       <c r="C36" s="74"/>
       <c r="D36" s="74"/>
       <c r="E36" s="74" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F36" s="74"/>
       <c r="G36" s="74"/>
@@ -7033,7 +6921,7 @@
     <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B42" s="73"/>
       <c r="C42" s="71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G42" s="74"/>
       <c r="H42" s="74"/>
@@ -7066,14 +6954,14 @@
     <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" s="73"/>
       <c r="C45" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E45" s="67">
         <f>4.2*2.7</f>
         <v>11.340000000000002</v>
       </c>
       <c r="F45" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J45" s="74"/>
       <c r="K45" s="74"/>
@@ -7085,14 +6973,14 @@
     <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46" s="73"/>
       <c r="C46" s="67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E46" s="67">
         <f>E45/1000/1000</f>
         <v>1.1340000000000002E-5</v>
       </c>
       <c r="F46" s="67" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J46" s="74"/>
       <c r="K46" s="74"/>
@@ -7116,10 +7004,10 @@
         <v>105</v>
       </c>
       <c r="F48" s="67" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G48" s="67" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J48" s="74"/>
       <c r="K48" s="74"/>
@@ -7143,10 +7031,10 @@
         <v>33.6</v>
       </c>
       <c r="F50" s="67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G50" s="67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I50" s="150"/>
       <c r="J50" s="74"/>
@@ -7163,10 +7051,10 @@
         <v>4035.36</v>
       </c>
       <c r="F51" s="67" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G51" s="67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J51" s="74"/>
       <c r="K51" s="74"/>
@@ -7182,10 +7070,10 @@
         <v>8070.72</v>
       </c>
       <c r="F52" s="67" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G52" s="67" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J52" s="74"/>
       <c r="K52" s="74"/>
@@ -7210,10 +7098,10 @@
         <v>1.1209333333333333</v>
       </c>
       <c r="F54" s="67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G54" s="67" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J54" s="74"/>
       <c r="K54" s="74"/>
@@ -7229,10 +7117,10 @@
         <v>2.2418666666666667</v>
       </c>
       <c r="F55" s="67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G55" s="67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J55" s="74"/>
       <c r="K55" s="74"/>
@@ -7256,10 +7144,10 @@
         <v>2.7</v>
       </c>
       <c r="F57" s="67" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G57" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J57" s="74"/>
       <c r="K57" s="74"/>
@@ -7275,10 +7163,10 @@
         <v>9.7200000000000006</v>
       </c>
       <c r="F58" s="67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G58" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J58" s="74"/>
       <c r="K58" s="74"/>
@@ -7312,7 +7200,7 @@
         <v>7.487290093976276E-2</v>
       </c>
       <c r="G61" s="67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J61" s="74"/>
       <c r="K61" s="74"/>
@@ -7328,7 +7216,7 @@
         <v>0.92512709906023727</v>
       </c>
       <c r="G62" s="67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J62" s="74"/>
       <c r="K62" s="74"/>
@@ -7344,7 +7232,7 @@
         <v>0.92512709906023727</v>
       </c>
       <c r="G63" s="67" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K63" s="74"/>
       <c r="L63" s="74"/>
@@ -7368,10 +7256,10 @@
         <v>1.0370058029065887</v>
       </c>
       <c r="F65" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="G65" s="67" t="s">
         <v>65</v>
-      </c>
-      <c r="G65" s="67" t="s">
-        <v>66</v>
       </c>
       <c r="K65" s="74"/>
       <c r="L65" s="74"/>
@@ -7387,10 +7275,10 @@
         <v>1.1209333333333333</v>
       </c>
       <c r="F66" s="67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G66" s="67" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K66" s="74"/>
       <c r="L66" s="74"/>
@@ -7459,7 +7347,7 @@
     <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B73" s="73"/>
       <c r="C73" s="162" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D73" s="74"/>
       <c r="K73" s="74"/>
@@ -7630,10 +7518,10 @@
         <v>2.67</v>
       </c>
       <c r="F93" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="G93" s="67" t="s">
         <v>124</v>
-      </c>
-      <c r="G93" s="67" t="s">
-        <v>125</v>
       </c>
       <c r="L93" s="74"/>
       <c r="M93" s="74"/>
@@ -7647,10 +7535,10 @@
         <v>0.18</v>
       </c>
       <c r="F94" s="67" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G94" s="67" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K94" s="74"/>
       <c r="L94" s="74"/>
@@ -7666,7 +7554,7 @@
         <v>2.85</v>
       </c>
       <c r="F95" s="67" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K95" s="74"/>
       <c r="L95" s="74"/>
@@ -7681,7 +7569,7 @@
         <v>10.26</v>
       </c>
       <c r="F96" s="67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K96" s="74"/>
       <c r="L96" s="74"/>
@@ -7702,10 +7590,10 @@
         <v>120.1</v>
       </c>
       <c r="F98" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="G98" s="67" t="s">
         <v>128</v>
-      </c>
-      <c r="G98" s="67" t="s">
-        <v>129</v>
       </c>
       <c r="N98" s="74"/>
       <c r="O98" s="74"/>
@@ -7727,7 +7615,7 @@
         <v>7.8705124271248761E-2</v>
       </c>
       <c r="G101" s="67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N101" s="74"/>
       <c r="O101" s="74"/>
@@ -7739,7 +7627,7 @@
         <v>0.92129487572875124</v>
       </c>
       <c r="G102" s="67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N102" s="74"/>
       <c r="O102" s="74"/>
@@ -7751,7 +7639,7 @@
         <v>0.92129487572875124</v>
       </c>
       <c r="G103" s="67" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N103" s="74"/>
       <c r="O103" s="74"/>
@@ -7767,10 +7655,10 @@
         <v>3.1</v>
       </c>
       <c r="F105" s="67" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G105" s="67" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N105" s="74"/>
       <c r="O105" s="74"/>
@@ -7782,7 +7670,7 @@
         <v>11.16</v>
       </c>
       <c r="F106" s="67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N106" s="74"/>
       <c r="O106" s="74"/>
@@ -7799,7 +7687,7 @@
         <v>0.91497790644522325</v>
       </c>
       <c r="G108" s="67" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N108" s="74"/>
       <c r="O108" s="74"/>
@@ -7833,10 +7721,10 @@
         <v>119</v>
       </c>
       <c r="F112" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="G112" s="67" t="s">
         <v>208</v>
-      </c>
-      <c r="G112" s="67" t="s">
-        <v>209</v>
       </c>
       <c r="N112" s="74"/>
       <c r="O112" s="74"/>
@@ -7847,10 +7735,10 @@
         <v>21.1</v>
       </c>
       <c r="F113" s="67" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G113" s="67" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N113" s="74"/>
       <c r="O113" s="74"/>
@@ -7860,13 +7748,13 @@
       <c r="N114" s="74"/>
       <c r="O114" s="74"/>
     </row>
-    <row r="115" spans="2:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:15" ht="32" x14ac:dyDescent="0.2">
       <c r="B115" s="73"/>
       <c r="E115" s="188" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G115" s="67" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N115" s="74"/>
       <c r="O115" s="74"/>
@@ -7897,10 +7785,10 @@
         <v>1.0204</v>
       </c>
       <c r="F119" s="185" t="s">
+        <v>222</v>
+      </c>
+      <c r="G119" s="67" t="s">
         <v>223</v>
-      </c>
-      <c r="G119" s="67" t="s">
-        <v>224</v>
       </c>
       <c r="N119" s="74"/>
       <c r="O119" s="74"/>
@@ -7911,10 +7799,10 @@
         <v>0.14706</v>
       </c>
       <c r="F120" s="185" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G120" s="67" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N120" s="74"/>
       <c r="O120" s="74"/>
@@ -7926,10 +7814,10 @@
         <v>0.44836997041806703</v>
       </c>
       <c r="F121" s="67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G121" s="67" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N121" s="74"/>
       <c r="O121" s="74"/>
@@ -7941,10 +7829,10 @@
         <v>0.55163002958193297</v>
       </c>
       <c r="F122" s="67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G122" s="67" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N122" s="74"/>
       <c r="O122" s="74"/>
@@ -7961,7 +7849,7 @@
         <v>0.91781024577601056</v>
       </c>
       <c r="G124" s="67" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N124" s="74"/>
       <c r="O124" s="74"/>
@@ -7974,7 +7862,7 @@
     <row r="126" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B126" s="73"/>
       <c r="C126" s="71" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N126" s="74"/>
       <c r="O126" s="74"/>
@@ -7982,7 +7870,7 @@
     <row r="127" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B127" s="73"/>
       <c r="C127" s="71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N127" s="74"/>
       <c r="O127" s="74"/>
@@ -8003,10 +7891,10 @@
         <v>20</v>
       </c>
       <c r="F130" s="67" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G130" s="67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N130" s="74"/>
       <c r="O130" s="74"/>
@@ -8017,10 +7905,10 @@
         <v>300</v>
       </c>
       <c r="F131" s="67" t="s">
+        <v>151</v>
+      </c>
+      <c r="G131" s="67" t="s">
         <v>152</v>
-      </c>
-      <c r="G131" s="67" t="s">
-        <v>153</v>
       </c>
       <c r="N131" s="74"/>
       <c r="O131" s="74"/>
@@ -8098,7 +7986,7 @@
     <row r="146" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B146" s="73"/>
       <c r="C146" s="71" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N146" s="74"/>
       <c r="O146" s="74"/>
@@ -8120,7 +8008,7 @@
         <v>0.5625</v>
       </c>
       <c r="G149" s="67" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="150" spans="2:15" x14ac:dyDescent="0.2">
@@ -8130,10 +8018,10 @@
         <v>168.75</v>
       </c>
       <c r="F150" s="67" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G150" s="67" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="151" spans="2:15" x14ac:dyDescent="0.2">
@@ -8143,10 +8031,10 @@
         <v>153.68852459016392</v>
       </c>
       <c r="F151" s="67" t="s">
+        <v>155</v>
+      </c>
+      <c r="G151" s="67" t="s">
         <v>156</v>
-      </c>
-      <c r="G151" s="67" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="152" spans="2:15" x14ac:dyDescent="0.2">
@@ -8174,10 +8062,10 @@
         <v>1037.0058029065888</v>
       </c>
       <c r="F158" s="67" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G158" s="67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="159" spans="2:15" x14ac:dyDescent="0.2">
@@ -8223,19 +8111,19 @@
     <row r="169" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B169" s="73"/>
       <c r="G169" s="67" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="170" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B170" s="73"/>
       <c r="G170" s="67" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="171" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B171" s="73"/>
       <c r="G171" s="67" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="172" spans="2:7" x14ac:dyDescent="0.2">
@@ -8247,10 +8135,10 @@
         <v>0</v>
       </c>
       <c r="F173" s="67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G173" s="67" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.2">
@@ -8266,7 +8154,7 @@
         <v>0.45</v>
       </c>
       <c r="G176" s="67" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.2">
@@ -8308,7 +8196,7 @@
     <row r="189" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B189" s="73"/>
       <c r="C189" s="71" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.2">
@@ -8333,16 +8221,16 @@
         <v>4</v>
       </c>
       <c r="F195" s="67" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G195" s="67" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K195" s="67" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L195" s="74" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="196" spans="2:19" x14ac:dyDescent="0.2">
@@ -8352,25 +8240,25 @@
         <v>1.8</v>
       </c>
       <c r="F196" s="67" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G196" s="67" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L196" s="74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="197" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B197" s="73"/>
       <c r="L197" s="74" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R197" s="67" t="s">
+        <v>175</v>
+      </c>
+      <c r="S197" s="67" t="s">
         <v>176</v>
-      </c>
-      <c r="S197" s="67" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="198" spans="2:19" x14ac:dyDescent="0.2">
@@ -8386,7 +8274,7 @@
         <v>22</v>
       </c>
       <c r="L198" s="74" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="199" spans="2:19" x14ac:dyDescent="0.2">
@@ -8399,7 +8287,7 @@
         <v>20</v>
       </c>
       <c r="G199" s="67" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="200" spans="2:19" x14ac:dyDescent="0.2">
@@ -8423,16 +8311,16 @@
         <v>10</v>
       </c>
       <c r="F205" s="67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G205" s="67" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K205" s="67" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L205" s="74" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="206" spans="2:19" x14ac:dyDescent="0.2">
@@ -8442,19 +8330,19 @@
         <v>0.1</v>
       </c>
       <c r="L206" s="74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="207" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B207" s="73"/>
       <c r="L207" s="74" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R207" s="67" t="s">
+        <v>175</v>
+      </c>
+      <c r="S207" s="67" t="s">
         <v>176</v>
-      </c>
-      <c r="S207" s="67" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="208" spans="2:19" x14ac:dyDescent="0.2">
@@ -8469,7 +8357,7 @@
       </c>
       <c r="H208" s="74"/>
       <c r="L208" s="74" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="209" spans="2:11" x14ac:dyDescent="0.2">
@@ -8479,7 +8367,7 @@
         <v>15937.589184015196</v>
       </c>
       <c r="G209" s="67" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H209" s="74"/>
     </row>
@@ -8512,10 +8400,10 @@
         <v>6570</v>
       </c>
       <c r="F215" s="67" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G215" s="67" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="216" spans="2:11" x14ac:dyDescent="0.2">
@@ -8543,16 +8431,16 @@
     <row r="222" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B222" s="73"/>
       <c r="C222" s="67" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E222" s="67">
         <v>1.05</v>
       </c>
       <c r="F222" s="67" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G222" s="67" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="223" spans="2:11" x14ac:dyDescent="0.2">
@@ -8561,10 +8449,10 @@
         <v>1.36</v>
       </c>
       <c r="F223" s="67" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G223" s="67" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="224" spans="2:11" x14ac:dyDescent="0.2">
@@ -8573,10 +8461,10 @@
         <v>1.02</v>
       </c>
       <c r="F224" s="67" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G224" s="67" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="225" spans="2:7" x14ac:dyDescent="0.2">
@@ -8585,7 +8473,7 @@
     <row r="226" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B226" s="73"/>
       <c r="G226" s="67" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="227" spans="2:7" x14ac:dyDescent="0.2">
